--- a/ProductAccounting/ProductAccounting/bin/Debug/УПД.xlsx
+++ b/ProductAccounting/ProductAccounting/bin/Debug/УПД.xlsx
@@ -393,16 +393,25 @@
     <x:t>Омская</x:t>
   </x:si>
   <x:si>
-    <x:t>Молоко1</x:t>
+    <x:t>Хлеб</x:t>
+  </x:si>
+  <x:si>
+    <x:t>кг</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Молоко</x:t>
   </x:si>
   <x:si>
     <x:t>литр</x:t>
   </x:si>
   <x:si>
-    <x:t>Хлеб</x:t>
-  </x:si>
-  <x:si>
-    <x:t>кг</x:t>
+    <x:t>Печенье</x:t>
+  </x:si>
+  <x:si>
+    <x:t>10349,00</x:t>
+  </x:si>
+  <x:si>
+    <x:t>11983,87</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -3444,20 +3453,20 @@
       <x:c r="AB21" s="64"/>
       <x:c r="AC21" s="64"/>
       <x:c r="AD21" s="69">
-        <x:v>10</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="AE21" s="69"/>
       <x:c r="AF21" s="69"/>
       <x:c r="AG21" s="69"/>
       <x:c r="AH21" s="68">
-        <x:v>0</x:v>
+        <x:v>50.99</x:v>
       </x:c>
       <x:c r="AI21" s="68"/>
       <x:c r="AJ21" s="68"/>
       <x:c r="AK21" s="68"/>
       <x:c r="AL21" s="68"/>
       <x:c r="AM21" s="68">
-        <x:v>0</x:v>
+        <x:f>AD21*AH21</x:f>
       </x:c>
       <x:c r="AN21" s="68"/>
       <x:c r="AO21" s="68"/>
@@ -3470,7 +3479,7 @@
       <x:c r="AV21" s="68"/>
       <x:c r="AW21" s="68"/>
       <x:c r="AX21" s="68">
-        <x:v>20</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="AY21" s="68"/>
       <x:c r="AZ21" s="68"/>
@@ -3549,20 +3558,20 @@
       <x:c r="AB22" s="64"/>
       <x:c r="AC22" s="64"/>
       <x:c r="AD22" s="69">
-        <x:v>4</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="AE22" s="69"/>
       <x:c r="AF22" s="69"/>
       <x:c r="AG22" s="69"/>
       <x:c r="AH22" s="68">
-        <x:v>0</x:v>
+        <x:v>89.99</x:v>
       </x:c>
       <x:c r="AI22" s="68"/>
       <x:c r="AJ22" s="68"/>
       <x:c r="AK22" s="68"/>
       <x:c r="AL22" s="68"/>
       <x:c r="AM22" s="68">
-        <x:v>0</x:v>
+        <x:f>AD22*AH22</x:f>
       </x:c>
       <x:c r="AN22" s="68"/>
       <x:c r="AO22" s="68"/>
@@ -3580,13 +3589,17 @@
       <x:c r="AY22" s="68"/>
       <x:c r="AZ22" s="68"/>
       <x:c r="BA22" s="68"/>
-      <x:c r="BB22" s="68"/>
+      <x:c r="BB22" s="68">
+        <x:f>AM22*AX22/100</x:f>
+      </x:c>
       <x:c r="BC22" s="68"/>
       <x:c r="BD22" s="68"/>
       <x:c r="BE22" s="68"/>
       <x:c r="BF22" s="68"/>
       <x:c r="BG22" s="68"/>
-      <x:c r="BH22" s="68"/>
+      <x:c r="BH22" s="68">
+        <x:f>SUM(AM22,BB22)</x:f>
+      </x:c>
       <x:c r="BI22" s="68"/>
       <x:c r="BJ22" s="68"/>
       <x:c r="BK22" s="68"/>
@@ -3613,7 +3626,7 @@
       <x:c r="CG22" s="11"/>
       <x:c r="CI22" s="2"/>
     </x:row>
-    <x:row r="23" spans="1:87" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <x:row r="23" spans="1:87" ht="12" customHeight="1">
       <x:c r="A23" s="59"/>
       <x:c r="B23" s="60"/>
       <x:c r="C23" s="60"/>
@@ -3622,290 +3635,303 @@
       <x:c r="F23" s="60"/>
       <x:c r="G23" s="60"/>
       <x:c r="H23" s="61"/>
-      <x:c r="I23" s="70" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="J23" s="71"/>
-      <x:c r="K23" s="71"/>
-      <x:c r="L23" s="71"/>
-      <x:c r="M23" s="71"/>
-      <x:c r="N23" s="71"/>
-      <x:c r="O23" s="71"/>
-      <x:c r="P23" s="71"/>
-      <x:c r="Q23" s="71"/>
-      <x:c r="R23" s="71"/>
-      <x:c r="S23" s="71"/>
-      <x:c r="T23" s="71"/>
-      <x:c r="U23" s="71"/>
-      <x:c r="V23" s="71"/>
-      <x:c r="W23" s="71"/>
-      <x:c r="X23" s="71"/>
-      <x:c r="Y23" s="71"/>
-      <x:c r="Z23" s="71"/>
-      <x:c r="AA23" s="71"/>
-      <x:c r="AB23" s="71"/>
-      <x:c r="AC23" s="71"/>
-      <x:c r="AD23" s="71"/>
-      <x:c r="AE23" s="71"/>
-      <x:c r="AF23" s="71"/>
-      <x:c r="AG23" s="71"/>
-      <x:c r="AH23" s="71"/>
-      <x:c r="AI23" s="71"/>
-      <x:c r="AJ23" s="71"/>
-      <x:c r="AK23" s="71"/>
-      <x:c r="AL23" s="71"/>
-      <x:c r="AM23" s="71"/>
-      <x:c r="AN23" s="72"/>
-      <x:c r="AO23" s="73">
-        <x:f>SUM(AM21:AS21)</x:f>
-      </x:c>
-      <x:c r="AP23" s="73"/>
-      <x:c r="AQ23" s="73"/>
-      <x:c r="AR23" s="73"/>
-      <x:c r="AS23" s="73"/>
-      <x:c r="AT23" s="73"/>
-      <x:c r="AU23" s="73"/>
-      <x:c r="AV23" s="74" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="AW23" s="75"/>
-      <x:c r="AX23" s="75"/>
-      <x:c r="AY23" s="75"/>
-      <x:c r="AZ23" s="75"/>
-      <x:c r="BA23" s="75"/>
-      <x:c r="BB23" s="75"/>
-      <x:c r="BC23" s="76"/>
-      <x:c r="BD23" s="73">
-        <x:f>SUM(BB21:BG21)</x:f>
-      </x:c>
-      <x:c r="BE23" s="73"/>
-      <x:c r="BF23" s="73"/>
-      <x:c r="BG23" s="73"/>
-      <x:c r="BH23" s="73"/>
-      <x:c r="BI23" s="73"/>
-      <x:c r="BJ23" s="73">
-        <x:f>SUM(BH21:BN21)</x:f>
-      </x:c>
-      <x:c r="BK23" s="73"/>
-      <x:c r="BL23" s="73"/>
-      <x:c r="BM23" s="73"/>
-      <x:c r="BN23" s="73"/>
-      <x:c r="BO23" s="73"/>
-      <x:c r="BP23" s="73"/>
-      <x:c r="BQ23" s="77"/>
-      <x:c r="BR23" s="77"/>
-      <x:c r="BS23" s="77"/>
-      <x:c r="BT23" s="77"/>
-      <x:c r="BU23" s="77"/>
-      <x:c r="BV23" s="77"/>
-      <x:c r="BW23" s="77"/>
-      <x:c r="BX23" s="77"/>
-      <x:c r="BY23" s="77"/>
-      <x:c r="BZ23" s="77"/>
-      <x:c r="CA23" s="77"/>
-      <x:c r="CB23" s="77"/>
-      <x:c r="CC23" s="77"/>
-      <x:c r="CD23" s="77"/>
-      <x:c r="CE23" s="77"/>
-      <x:c r="CF23" s="77"/>
-      <x:c r="CG23" s="78"/>
+      <x:c r="I23" s="62">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="J23" s="60"/>
+      <x:c r="K23" s="63"/>
+      <x:c r="L23" s="59" t="s">
+        <x:v>119</x:v>
+      </x:c>
+      <x:c r="M23" s="60"/>
+      <x:c r="N23" s="60"/>
+      <x:c r="O23" s="60"/>
+      <x:c r="P23" s="60"/>
+      <x:c r="Q23" s="63"/>
+      <x:c r="R23" s="52"/>
+      <x:c r="S23" s="53"/>
+      <x:c r="T23" s="57"/>
+      <x:c r="U23" s="64"/>
+      <x:c r="V23" s="64"/>
+      <x:c r="W23" s="64" t="s">
+        <x:v>116</x:v>
+      </x:c>
+      <x:c r="X23" s="64"/>
+      <x:c r="Y23" s="64"/>
+      <x:c r="Z23" s="64"/>
+      <x:c r="AA23" s="64"/>
+      <x:c r="AB23" s="64"/>
+      <x:c r="AC23" s="64"/>
+      <x:c r="AD23" s="69">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="AE23" s="69"/>
+      <x:c r="AF23" s="69"/>
+      <x:c r="AG23" s="69"/>
+      <x:c r="AH23" s="68">
+        <x:v>199.99</x:v>
+      </x:c>
+      <x:c r="AI23" s="68"/>
+      <x:c r="AJ23" s="68"/>
+      <x:c r="AK23" s="68"/>
+      <x:c r="AL23" s="68"/>
+      <x:c r="AM23" s="68">
+        <x:f>AD23*AH23</x:f>
+      </x:c>
+      <x:c r="AN23" s="68"/>
+      <x:c r="AO23" s="68"/>
+      <x:c r="AP23" s="68"/>
+      <x:c r="AQ23" s="68"/>
+      <x:c r="AR23" s="68"/>
+      <x:c r="AS23" s="68"/>
+      <x:c r="AT23" s="68"/>
+      <x:c r="AU23" s="68"/>
+      <x:c r="AV23" s="68"/>
+      <x:c r="AW23" s="68"/>
+      <x:c r="AX23" s="68">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="AY23" s="68"/>
+      <x:c r="AZ23" s="68"/>
+      <x:c r="BA23" s="68"/>
+      <x:c r="BB23" s="68">
+        <x:f>AM23*AX23/100</x:f>
+      </x:c>
+      <x:c r="BC23" s="68"/>
+      <x:c r="BD23" s="68"/>
+      <x:c r="BE23" s="68"/>
+      <x:c r="BF23" s="68"/>
+      <x:c r="BG23" s="68"/>
+      <x:c r="BH23" s="68">
+        <x:f>SUM(AM23,BB23)</x:f>
+      </x:c>
+      <x:c r="BI23" s="68"/>
+      <x:c r="BJ23" s="68"/>
+      <x:c r="BK23" s="68"/>
+      <x:c r="BL23" s="68"/>
+      <x:c r="BM23" s="68"/>
+      <x:c r="BN23" s="68"/>
+      <x:c r="BO23" s="64"/>
+      <x:c r="BP23" s="64"/>
+      <x:c r="BQ23" s="64"/>
+      <x:c r="BR23" s="64"/>
+      <x:c r="BS23" s="64"/>
+      <x:c r="BT23" s="64"/>
+      <x:c r="BU23" s="64"/>
+      <x:c r="BV23" s="64"/>
+      <x:c r="BW23" s="64"/>
+      <x:c r="BX23" s="64"/>
+      <x:c r="BY23" s="64"/>
+      <x:c r="BZ23" s="64"/>
+      <x:c r="CA23" s="64"/>
+      <x:c r="CB23" s="64"/>
+      <x:c r="CC23" s="64"/>
+      <x:c r="CD23" s="64"/>
+      <x:c r="CE23" s="64"/>
+      <x:c r="CG23" s="11"/>
       <x:c r="CI23" s="2"/>
     </x:row>
-    <x:row r="24" spans="1:87" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A24" s="79"/>
-      <x:c r="B24" s="79"/>
-      <x:c r="C24" s="79"/>
-      <x:c r="D24" s="79"/>
-      <x:c r="E24" s="79"/>
-      <x:c r="F24" s="79"/>
-      <x:c r="G24" s="79"/>
-      <x:c r="H24" s="79"/>
-      <x:c r="I24" s="80"/>
-      <x:c r="J24" s="79"/>
-      <x:c r="K24" s="79"/>
-      <x:c r="L24" s="79"/>
-      <x:c r="M24" s="79"/>
-      <x:c r="N24" s="79"/>
-      <x:c r="O24" s="79"/>
-      <x:c r="P24" s="79"/>
-      <x:c r="Q24" s="79"/>
-      <x:c r="R24" s="79"/>
-      <x:c r="S24" s="79"/>
-      <x:c r="T24" s="79"/>
-      <x:c r="U24" s="79"/>
-      <x:c r="V24" s="79"/>
-      <x:c r="W24" s="79"/>
-      <x:c r="X24" s="79"/>
-      <x:c r="Y24" s="79"/>
-      <x:c r="Z24" s="79"/>
-      <x:c r="AA24" s="79"/>
-      <x:c r="AB24" s="79"/>
-      <x:c r="AC24" s="79"/>
-      <x:c r="AD24" s="79"/>
-      <x:c r="AE24" s="79"/>
-      <x:c r="AF24" s="79"/>
-      <x:c r="AG24" s="79"/>
-      <x:c r="AH24" s="79"/>
-      <x:c r="AI24" s="79"/>
-      <x:c r="AJ24" s="79"/>
-      <x:c r="AK24" s="79"/>
-      <x:c r="AL24" s="79"/>
-      <x:c r="AM24" s="79"/>
-      <x:c r="AN24" s="79"/>
-      <x:c r="AO24" s="79"/>
-      <x:c r="AP24" s="79"/>
-      <x:c r="AQ24" s="79"/>
-      <x:c r="AR24" s="79"/>
-      <x:c r="AS24" s="79"/>
-      <x:c r="AT24" s="79"/>
-      <x:c r="AU24" s="79"/>
-      <x:c r="AV24" s="79"/>
-      <x:c r="AW24" s="79"/>
-      <x:c r="AX24" s="79"/>
-      <x:c r="AY24" s="79"/>
-      <x:c r="AZ24" s="79"/>
-      <x:c r="BA24" s="79"/>
-      <x:c r="BB24" s="79"/>
-      <x:c r="BC24" s="79"/>
-      <x:c r="BD24" s="79"/>
-      <x:c r="BE24" s="79"/>
-      <x:c r="BF24" s="79"/>
-      <x:c r="BG24" s="79"/>
-      <x:c r="BH24" s="79"/>
-      <x:c r="BI24" s="79"/>
-      <x:c r="BJ24" s="79"/>
-      <x:c r="BK24" s="79"/>
-      <x:c r="BL24" s="79"/>
-      <x:c r="BM24" s="79"/>
-      <x:c r="BN24" s="79"/>
-      <x:c r="BO24" s="79"/>
-      <x:c r="BP24" s="79"/>
-      <x:c r="BQ24" s="79"/>
-      <x:c r="BR24" s="79"/>
-      <x:c r="BS24" s="79"/>
-      <x:c r="BT24" s="79"/>
-      <x:c r="BU24" s="79"/>
-      <x:c r="BV24" s="79"/>
-      <x:c r="BW24" s="79"/>
-      <x:c r="BX24" s="79"/>
-      <x:c r="BY24" s="79"/>
-      <x:c r="BZ24" s="79"/>
-      <x:c r="CA24" s="79"/>
-      <x:c r="CB24" s="79"/>
-      <x:c r="CC24" s="79"/>
-      <x:c r="CD24" s="79"/>
-      <x:c r="CE24" s="79"/>
-      <x:c r="CF24" s="79"/>
-      <x:c r="CG24" s="81"/>
+    <x:row r="24" spans="1:87" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A24" s="59"/>
+      <x:c r="B24" s="60"/>
+      <x:c r="C24" s="60"/>
+      <x:c r="D24" s="60"/>
+      <x:c r="E24" s="60"/>
+      <x:c r="F24" s="60"/>
+      <x:c r="G24" s="60"/>
+      <x:c r="H24" s="61"/>
+      <x:c r="I24" s="70" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="J24" s="71"/>
+      <x:c r="K24" s="71"/>
+      <x:c r="L24" s="71"/>
+      <x:c r="M24" s="71"/>
+      <x:c r="N24" s="71"/>
+      <x:c r="O24" s="71"/>
+      <x:c r="P24" s="71"/>
+      <x:c r="Q24" s="71"/>
+      <x:c r="R24" s="71"/>
+      <x:c r="S24" s="71"/>
+      <x:c r="T24" s="71"/>
+      <x:c r="U24" s="71"/>
+      <x:c r="V24" s="71"/>
+      <x:c r="W24" s="71"/>
+      <x:c r="X24" s="71"/>
+      <x:c r="Y24" s="71"/>
+      <x:c r="Z24" s="71"/>
+      <x:c r="AA24" s="71"/>
+      <x:c r="AB24" s="71"/>
+      <x:c r="AC24" s="71"/>
+      <x:c r="AD24" s="71"/>
+      <x:c r="AE24" s="71"/>
+      <x:c r="AF24" s="71"/>
+      <x:c r="AG24" s="71"/>
+      <x:c r="AH24" s="71"/>
+      <x:c r="AI24" s="71"/>
+      <x:c r="AJ24" s="71"/>
+      <x:c r="AK24" s="71"/>
+      <x:c r="AL24" s="71"/>
+      <x:c r="AM24" s="71"/>
+      <x:c r="AN24" s="72"/>
+      <x:c r="AO24" s="73" t="s">
+        <x:v>120</x:v>
+      </x:c>
+      <x:c r="AP24" s="73"/>
+      <x:c r="AQ24" s="73"/>
+      <x:c r="AR24" s="73"/>
+      <x:c r="AS24" s="73"/>
+      <x:c r="AT24" s="73"/>
+      <x:c r="AU24" s="73"/>
+      <x:c r="AV24" s="74" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="AW24" s="75"/>
+      <x:c r="AX24" s="75"/>
+      <x:c r="AY24" s="75"/>
+      <x:c r="AZ24" s="75"/>
+      <x:c r="BA24" s="75"/>
+      <x:c r="BB24" s="75"/>
+      <x:c r="BC24" s="76"/>
+      <x:c r="BD24" s="73">
+        <x:f>SUM(BB21:BG21)</x:f>
+      </x:c>
+      <x:c r="BE24" s="73"/>
+      <x:c r="BF24" s="73"/>
+      <x:c r="BG24" s="73"/>
+      <x:c r="BH24" s="73"/>
+      <x:c r="BI24" s="73"/>
+      <x:c r="BJ24" s="73" t="s">
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="BK24" s="73"/>
+      <x:c r="BL24" s="73"/>
+      <x:c r="BM24" s="73"/>
+      <x:c r="BN24" s="73"/>
+      <x:c r="BO24" s="73"/>
+      <x:c r="BP24" s="73"/>
+      <x:c r="BQ24" s="77"/>
+      <x:c r="BR24" s="77"/>
+      <x:c r="BS24" s="77"/>
+      <x:c r="BT24" s="77"/>
+      <x:c r="BU24" s="77"/>
+      <x:c r="BV24" s="77"/>
+      <x:c r="BW24" s="77"/>
+      <x:c r="BX24" s="77"/>
+      <x:c r="BY24" s="77"/>
+      <x:c r="BZ24" s="77"/>
+      <x:c r="CA24" s="77"/>
+      <x:c r="CB24" s="77"/>
+      <x:c r="CC24" s="77"/>
+      <x:c r="CD24" s="77"/>
+      <x:c r="CE24" s="77"/>
+      <x:c r="CF24" s="77"/>
+      <x:c r="CG24" s="78"/>
       <x:c r="CI24" s="2"/>
     </x:row>
-    <x:row r="25" spans="1:87" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A25" s="82" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="B25" s="82"/>
-      <x:c r="C25" s="82"/>
-      <x:c r="D25" s="82"/>
-      <x:c r="E25" s="82"/>
-      <x:c r="F25" s="82"/>
-      <x:c r="G25" s="82"/>
-      <x:c r="H25" s="82"/>
-      <x:c r="I25" s="2"/>
-      <x:c r="J25" s="82" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="K25" s="82"/>
-      <x:c r="L25" s="82"/>
-      <x:c r="M25" s="82"/>
-      <x:c r="N25" s="82"/>
-      <x:c r="O25" s="82"/>
-      <x:c r="P25" s="82"/>
-      <x:c r="Q25" s="82"/>
-      <x:c r="R25" s="82"/>
-      <x:c r="S25" s="82"/>
-      <x:c r="T25" s="82"/>
-      <x:c r="U25" s="82"/>
-      <x:c r="V25" s="82"/>
-      <x:c r="W25" s="82"/>
-      <x:c r="X25" s="82"/>
-      <x:c r="Y25" s="82"/>
-      <x:c r="Z25" s="83"/>
-      <x:c r="AA25" s="83"/>
-      <x:c r="AB25" s="83"/>
-      <x:c r="AC25" s="83"/>
-      <x:c r="AD25" s="83"/>
-      <x:c r="AE25" s="83"/>
-      <x:c r="AF25" s="12"/>
-      <x:c r="AG25" s="83"/>
-      <x:c r="AH25" s="83"/>
-      <x:c r="AI25" s="83"/>
-      <x:c r="AJ25" s="83"/>
-      <x:c r="AK25" s="83"/>
-      <x:c r="AL25" s="83"/>
-      <x:c r="AM25" s="83"/>
-      <x:c r="AN25" s="83"/>
-      <x:c r="AO25" s="83"/>
-      <x:c r="AP25" s="83"/>
-      <x:c r="AQ25" s="83"/>
-      <x:c r="AR25" s="83"/>
-      <x:c r="AS25" s="83"/>
-      <x:c r="AT25" s="83"/>
-      <x:c r="AU25" s="83"/>
-      <x:c r="AV25" s="82" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="AW25" s="82"/>
-      <x:c r="AX25" s="82"/>
-      <x:c r="AY25" s="82"/>
-      <x:c r="AZ25" s="82"/>
-      <x:c r="BA25" s="82"/>
-      <x:c r="BB25" s="82"/>
-      <x:c r="BC25" s="82"/>
-      <x:c r="BD25" s="82"/>
-      <x:c r="BE25" s="82"/>
-      <x:c r="BF25" s="82"/>
-      <x:c r="BG25" s="82"/>
-      <x:c r="BH25" s="82"/>
-      <x:c r="BI25" s="82"/>
-      <x:c r="BJ25" s="82"/>
-      <x:c r="BK25" s="82"/>
-      <x:c r="BL25" s="83"/>
-      <x:c r="BM25" s="83"/>
-      <x:c r="BN25" s="83"/>
-      <x:c r="BO25" s="83"/>
-      <x:c r="BP25" s="83"/>
-      <x:c r="BQ25" s="83"/>
-      <x:c r="BR25" s="12"/>
-      <x:c r="BS25" s="83"/>
-      <x:c r="BT25" s="83"/>
-      <x:c r="BU25" s="83"/>
-      <x:c r="BV25" s="83"/>
-      <x:c r="BW25" s="83"/>
-      <x:c r="BX25" s="83"/>
-      <x:c r="BY25" s="83"/>
-      <x:c r="BZ25" s="83"/>
-      <x:c r="CA25" s="83"/>
-      <x:c r="CB25" s="83"/>
-      <x:c r="CC25" s="83"/>
-      <x:c r="CD25" s="83"/>
-      <x:c r="CE25" s="83"/>
-      <x:c r="CF25" s="83"/>
-      <x:c r="CG25" s="84"/>
+    <x:row r="25" spans="1:87" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A25" s="79"/>
+      <x:c r="B25" s="79"/>
+      <x:c r="C25" s="79"/>
+      <x:c r="D25" s="79"/>
+      <x:c r="E25" s="79"/>
+      <x:c r="F25" s="79"/>
+      <x:c r="G25" s="79"/>
+      <x:c r="H25" s="79"/>
+      <x:c r="I25" s="80"/>
+      <x:c r="J25" s="79"/>
+      <x:c r="K25" s="79"/>
+      <x:c r="L25" s="79"/>
+      <x:c r="M25" s="79"/>
+      <x:c r="N25" s="79"/>
+      <x:c r="O25" s="79"/>
+      <x:c r="P25" s="79"/>
+      <x:c r="Q25" s="79"/>
+      <x:c r="R25" s="79"/>
+      <x:c r="S25" s="79"/>
+      <x:c r="T25" s="79"/>
+      <x:c r="U25" s="79"/>
+      <x:c r="V25" s="79"/>
+      <x:c r="W25" s="79"/>
+      <x:c r="X25" s="79"/>
+      <x:c r="Y25" s="79"/>
+      <x:c r="Z25" s="79"/>
+      <x:c r="AA25" s="79"/>
+      <x:c r="AB25" s="79"/>
+      <x:c r="AC25" s="79"/>
+      <x:c r="AD25" s="79"/>
+      <x:c r="AE25" s="79"/>
+      <x:c r="AF25" s="79"/>
+      <x:c r="AG25" s="79"/>
+      <x:c r="AH25" s="79"/>
+      <x:c r="AI25" s="79"/>
+      <x:c r="AJ25" s="79"/>
+      <x:c r="AK25" s="79"/>
+      <x:c r="AL25" s="79"/>
+      <x:c r="AM25" s="79"/>
+      <x:c r="AN25" s="79"/>
+      <x:c r="AO25" s="79"/>
+      <x:c r="AP25" s="79"/>
+      <x:c r="AQ25" s="79"/>
+      <x:c r="AR25" s="79"/>
+      <x:c r="AS25" s="79"/>
+      <x:c r="AT25" s="79"/>
+      <x:c r="AU25" s="79"/>
+      <x:c r="AV25" s="79"/>
+      <x:c r="AW25" s="79"/>
+      <x:c r="AX25" s="79"/>
+      <x:c r="AY25" s="79"/>
+      <x:c r="AZ25" s="79"/>
+      <x:c r="BA25" s="79"/>
+      <x:c r="BB25" s="79"/>
+      <x:c r="BC25" s="79"/>
+      <x:c r="BD25" s="79"/>
+      <x:c r="BE25" s="79"/>
+      <x:c r="BF25" s="79"/>
+      <x:c r="BG25" s="79"/>
+      <x:c r="BH25" s="79"/>
+      <x:c r="BI25" s="79"/>
+      <x:c r="BJ25" s="79"/>
+      <x:c r="BK25" s="79"/>
+      <x:c r="BL25" s="79"/>
+      <x:c r="BM25" s="79"/>
+      <x:c r="BN25" s="79"/>
+      <x:c r="BO25" s="79"/>
+      <x:c r="BP25" s="79"/>
+      <x:c r="BQ25" s="79"/>
+      <x:c r="BR25" s="79"/>
+      <x:c r="BS25" s="79"/>
+      <x:c r="BT25" s="79"/>
+      <x:c r="BU25" s="79"/>
+      <x:c r="BV25" s="79"/>
+      <x:c r="BW25" s="79"/>
+      <x:c r="BX25" s="79"/>
+      <x:c r="BY25" s="79"/>
+      <x:c r="BZ25" s="79"/>
+      <x:c r="CA25" s="79"/>
+      <x:c r="CB25" s="79"/>
+      <x:c r="CC25" s="79"/>
+      <x:c r="CD25" s="79"/>
+      <x:c r="CE25" s="79"/>
+      <x:c r="CF25" s="79"/>
+      <x:c r="CG25" s="81"/>
       <x:c r="CI25" s="2"/>
     </x:row>
-    <x:row r="26" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A26" s="8"/>
-      <x:c r="B26" s="8"/>
-      <x:c r="C26" s="16" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="D26" s="16"/>
-      <x:c r="E26" s="16"/>
-      <x:c r="F26" s="16"/>
-      <x:c r="G26" s="16"/>
-      <x:c r="H26" s="16"/>
+    <x:row r="26" spans="1:87" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A26" s="82" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B26" s="82"/>
+      <x:c r="C26" s="82"/>
+      <x:c r="D26" s="82"/>
+      <x:c r="E26" s="82"/>
+      <x:c r="F26" s="82"/>
+      <x:c r="G26" s="82"/>
+      <x:c r="H26" s="82"/>
       <x:c r="I26" s="2"/>
-      <x:c r="J26" s="82"/>
+      <x:c r="J26" s="82" t="s">
+        <x:v>71</x:v>
+      </x:c>
       <x:c r="K26" s="82"/>
       <x:c r="L26" s="82"/>
       <x:c r="M26" s="82"/>
@@ -3921,81 +3947,83 @@
       <x:c r="W26" s="82"/>
       <x:c r="X26" s="82"/>
       <x:c r="Y26" s="82"/>
-      <x:c r="Z26" s="13" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AA26" s="13"/>
-      <x:c r="AB26" s="13"/>
-      <x:c r="AC26" s="13"/>
-      <x:c r="AD26" s="13"/>
-      <x:c r="AE26" s="13"/>
-      <x:c r="AF26" s="13"/>
-      <x:c r="AG26" s="13" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="AH26" s="13"/>
-      <x:c r="AI26" s="13"/>
-      <x:c r="AJ26" s="13"/>
-      <x:c r="AK26" s="13"/>
-      <x:c r="AL26" s="13"/>
-      <x:c r="AM26" s="13"/>
-      <x:c r="AN26" s="13"/>
-      <x:c r="AO26" s="13"/>
-      <x:c r="AP26" s="13"/>
-      <x:c r="AQ26" s="13"/>
-      <x:c r="AR26" s="13"/>
-      <x:c r="AS26" s="13"/>
-      <x:c r="AT26" s="13"/>
-      <x:c r="AU26" s="13"/>
-      <x:c r="AV26" s="86"/>
-      <x:c r="AW26" s="86"/>
-      <x:c r="AX26" s="86"/>
-      <x:c r="AY26" s="86"/>
-      <x:c r="AZ26" s="86"/>
-      <x:c r="BA26" s="86"/>
-      <x:c r="BB26" s="86"/>
-      <x:c r="BC26" s="86"/>
-      <x:c r="BD26" s="86"/>
-      <x:c r="BE26" s="86"/>
-      <x:c r="BF26" s="86"/>
-      <x:c r="BG26" s="86"/>
-      <x:c r="BH26" s="86"/>
-      <x:c r="BI26" s="86"/>
-      <x:c r="BJ26" s="86"/>
-      <x:c r="BK26" s="86"/>
-      <x:c r="BL26" s="13" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BM26" s="13"/>
-      <x:c r="BN26" s="13"/>
-      <x:c r="BO26" s="13"/>
-      <x:c r="BP26" s="13"/>
-      <x:c r="BQ26" s="13"/>
-      <x:c r="BR26" s="13"/>
-      <x:c r="BS26" s="13" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="BT26" s="13"/>
-      <x:c r="BU26" s="13"/>
-      <x:c r="BV26" s="13"/>
-      <x:c r="BW26" s="13"/>
-      <x:c r="BX26" s="13"/>
-      <x:c r="BY26" s="13"/>
-      <x:c r="BZ26" s="13"/>
-      <x:c r="CA26" s="13"/>
-      <x:c r="CB26" s="13"/>
-      <x:c r="CC26" s="13"/>
-      <x:c r="CD26" s="13"/>
-      <x:c r="CE26" s="13"/>
-      <x:c r="CF26" s="13"/>
-      <x:c r="CG26" s="87"/>
+      <x:c r="Z26" s="83"/>
+      <x:c r="AA26" s="83"/>
+      <x:c r="AB26" s="83"/>
+      <x:c r="AC26" s="83"/>
+      <x:c r="AD26" s="83"/>
+      <x:c r="AE26" s="83"/>
+      <x:c r="AF26" s="12"/>
+      <x:c r="AG26" s="83"/>
+      <x:c r="AH26" s="83"/>
+      <x:c r="AI26" s="83"/>
+      <x:c r="AJ26" s="83"/>
+      <x:c r="AK26" s="83"/>
+      <x:c r="AL26" s="83"/>
+      <x:c r="AM26" s="83"/>
+      <x:c r="AN26" s="83"/>
+      <x:c r="AO26" s="83"/>
+      <x:c r="AP26" s="83"/>
+      <x:c r="AQ26" s="83"/>
+      <x:c r="AR26" s="83"/>
+      <x:c r="AS26" s="83"/>
+      <x:c r="AT26" s="83"/>
+      <x:c r="AU26" s="83"/>
+      <x:c r="AV26" s="82" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="AW26" s="82"/>
+      <x:c r="AX26" s="82"/>
+      <x:c r="AY26" s="82"/>
+      <x:c r="AZ26" s="82"/>
+      <x:c r="BA26" s="82"/>
+      <x:c r="BB26" s="82"/>
+      <x:c r="BC26" s="82"/>
+      <x:c r="BD26" s="82"/>
+      <x:c r="BE26" s="82"/>
+      <x:c r="BF26" s="82"/>
+      <x:c r="BG26" s="82"/>
+      <x:c r="BH26" s="82"/>
+      <x:c r="BI26" s="82"/>
+      <x:c r="BJ26" s="82"/>
+      <x:c r="BK26" s="82"/>
+      <x:c r="BL26" s="83"/>
+      <x:c r="BM26" s="83"/>
+      <x:c r="BN26" s="83"/>
+      <x:c r="BO26" s="83"/>
+      <x:c r="BP26" s="83"/>
+      <x:c r="BQ26" s="83"/>
+      <x:c r="BR26" s="12"/>
+      <x:c r="BS26" s="83"/>
+      <x:c r="BT26" s="83"/>
+      <x:c r="BU26" s="83"/>
+      <x:c r="BV26" s="83"/>
+      <x:c r="BW26" s="83"/>
+      <x:c r="BX26" s="83"/>
+      <x:c r="BY26" s="83"/>
+      <x:c r="BZ26" s="83"/>
+      <x:c r="CA26" s="83"/>
+      <x:c r="CB26" s="83"/>
+      <x:c r="CC26" s="83"/>
+      <x:c r="CD26" s="83"/>
+      <x:c r="CE26" s="83"/>
+      <x:c r="CF26" s="83"/>
+      <x:c r="CG26" s="84"/>
       <x:c r="CI26" s="2"/>
     </x:row>
-    <x:row r="27" spans="1:87" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <x:row r="27" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A27" s="8"/>
+      <x:c r="B27" s="8"/>
+      <x:c r="C27" s="16" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D27" s="16"/>
+      <x:c r="E27" s="16"/>
+      <x:c r="F27" s="16"/>
+      <x:c r="G27" s="16"/>
+      <x:c r="H27" s="16"/>
       <x:c r="I27" s="2"/>
-      <x:c r="J27" s="82" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="J27" s="82"/>
       <x:c r="K27" s="82"/>
       <x:c r="L27" s="82"/>
       <x:c r="M27" s="82"/>
@@ -4011,1436 +4039,1526 @@
       <x:c r="W27" s="82"/>
       <x:c r="X27" s="82"/>
       <x:c r="Y27" s="82"/>
-      <x:c r="Z27" s="83"/>
-      <x:c r="AA27" s="83"/>
-      <x:c r="AB27" s="83"/>
-      <x:c r="AC27" s="83"/>
-      <x:c r="AD27" s="83"/>
-      <x:c r="AE27" s="83"/>
-      <x:c r="AF27" s="12"/>
-      <x:c r="AG27" s="83"/>
-      <x:c r="AH27" s="83"/>
-      <x:c r="AI27" s="83"/>
-      <x:c r="AJ27" s="83"/>
-      <x:c r="AK27" s="83"/>
-      <x:c r="AL27" s="83"/>
-      <x:c r="AM27" s="83"/>
-      <x:c r="AN27" s="83"/>
-      <x:c r="AO27" s="83"/>
-      <x:c r="AP27" s="83"/>
-      <x:c r="AQ27" s="83"/>
-      <x:c r="AR27" s="83"/>
-      <x:c r="AS27" s="83"/>
-      <x:c r="AT27" s="83"/>
-      <x:c r="AU27" s="83"/>
-      <x:c r="AV27" s="82"/>
-      <x:c r="AW27" s="82"/>
-      <x:c r="AX27" s="82"/>
-      <x:c r="AY27" s="83"/>
-      <x:c r="AZ27" s="83"/>
-      <x:c r="BA27" s="83"/>
-      <x:c r="BB27" s="83"/>
-      <x:c r="BC27" s="83"/>
-      <x:c r="BD27" s="83"/>
-      <x:c r="BE27" s="83"/>
-      <x:c r="BF27" s="83"/>
-      <x:c r="BG27" s="83"/>
-      <x:c r="BH27" s="83"/>
-      <x:c r="BI27" s="83"/>
-      <x:c r="BJ27" s="83"/>
-      <x:c r="BK27" s="83"/>
-      <x:c r="BL27" s="83"/>
-      <x:c r="BM27" s="83"/>
-      <x:c r="BN27" s="83"/>
-      <x:c r="BO27" s="83"/>
-      <x:c r="BP27" s="83"/>
-      <x:c r="BQ27" s="83"/>
-      <x:c r="BR27" s="83"/>
-      <x:c r="BS27" s="83"/>
-      <x:c r="BT27" s="83"/>
-      <x:c r="BU27" s="83"/>
-      <x:c r="BV27" s="83"/>
-      <x:c r="BW27" s="83"/>
-      <x:c r="BX27" s="83"/>
-      <x:c r="BY27" s="83"/>
-      <x:c r="BZ27" s="83"/>
-      <x:c r="CA27" s="83"/>
-      <x:c r="CB27" s="83"/>
-      <x:c r="CC27" s="83"/>
-      <x:c r="CD27" s="83"/>
-      <x:c r="CE27" s="83"/>
-      <x:c r="CF27" s="83"/>
-      <x:c r="CG27" s="84"/>
+      <x:c r="Z27" s="13" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AA27" s="13"/>
+      <x:c r="AB27" s="13"/>
+      <x:c r="AC27" s="13"/>
+      <x:c r="AD27" s="13"/>
+      <x:c r="AE27" s="13"/>
+      <x:c r="AF27" s="13"/>
+      <x:c r="AG27" s="13" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="AH27" s="13"/>
+      <x:c r="AI27" s="13"/>
+      <x:c r="AJ27" s="13"/>
+      <x:c r="AK27" s="13"/>
+      <x:c r="AL27" s="13"/>
+      <x:c r="AM27" s="13"/>
+      <x:c r="AN27" s="13"/>
+      <x:c r="AO27" s="13"/>
+      <x:c r="AP27" s="13"/>
+      <x:c r="AQ27" s="13"/>
+      <x:c r="AR27" s="13"/>
+      <x:c r="AS27" s="13"/>
+      <x:c r="AT27" s="13"/>
+      <x:c r="AU27" s="13"/>
+      <x:c r="AV27" s="86"/>
+      <x:c r="AW27" s="86"/>
+      <x:c r="AX27" s="86"/>
+      <x:c r="AY27" s="86"/>
+      <x:c r="AZ27" s="86"/>
+      <x:c r="BA27" s="86"/>
+      <x:c r="BB27" s="86"/>
+      <x:c r="BC27" s="86"/>
+      <x:c r="BD27" s="86"/>
+      <x:c r="BE27" s="86"/>
+      <x:c r="BF27" s="86"/>
+      <x:c r="BG27" s="86"/>
+      <x:c r="BH27" s="86"/>
+      <x:c r="BI27" s="86"/>
+      <x:c r="BJ27" s="86"/>
+      <x:c r="BK27" s="86"/>
+      <x:c r="BL27" s="13" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BM27" s="13"/>
+      <x:c r="BN27" s="13"/>
+      <x:c r="BO27" s="13"/>
+      <x:c r="BP27" s="13"/>
+      <x:c r="BQ27" s="13"/>
+      <x:c r="BR27" s="13"/>
+      <x:c r="BS27" s="13" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="BT27" s="13"/>
+      <x:c r="BU27" s="13"/>
+      <x:c r="BV27" s="13"/>
+      <x:c r="BW27" s="13"/>
+      <x:c r="BX27" s="13"/>
+      <x:c r="BY27" s="13"/>
+      <x:c r="BZ27" s="13"/>
+      <x:c r="CA27" s="13"/>
+      <x:c r="CB27" s="13"/>
+      <x:c r="CC27" s="13"/>
+      <x:c r="CD27" s="13"/>
+      <x:c r="CE27" s="13"/>
+      <x:c r="CF27" s="13"/>
+      <x:c r="CG27" s="87"/>
       <x:c r="CI27" s="2"/>
     </x:row>
-    <x:row r="28" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <x:c r="I28" s="14"/>
-      <x:c r="J28" s="88"/>
-      <x:c r="K28" s="88"/>
-      <x:c r="L28" s="88"/>
-      <x:c r="M28" s="88"/>
-      <x:c r="N28" s="88"/>
-      <x:c r="O28" s="88"/>
-      <x:c r="P28" s="88"/>
-      <x:c r="Q28" s="88"/>
-      <x:c r="R28" s="88"/>
-      <x:c r="S28" s="88"/>
-      <x:c r="T28" s="88"/>
-      <x:c r="U28" s="88"/>
-      <x:c r="V28" s="88"/>
-      <x:c r="W28" s="88"/>
-      <x:c r="X28" s="88"/>
-      <x:c r="Y28" s="88"/>
-      <x:c r="Z28" s="15" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="AA28" s="15"/>
-      <x:c r="AB28" s="15"/>
-      <x:c r="AC28" s="15"/>
-      <x:c r="AD28" s="15"/>
-      <x:c r="AE28" s="15"/>
-      <x:c r="AF28" s="15"/>
-      <x:c r="AG28" s="15" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="AH28" s="15"/>
-      <x:c r="AI28" s="15"/>
-      <x:c r="AJ28" s="15"/>
-      <x:c r="AK28" s="15"/>
-      <x:c r="AL28" s="15"/>
-      <x:c r="AM28" s="15"/>
-      <x:c r="AN28" s="15"/>
-      <x:c r="AO28" s="15"/>
-      <x:c r="AP28" s="15"/>
-      <x:c r="AQ28" s="15"/>
-      <x:c r="AR28" s="15"/>
-      <x:c r="AS28" s="15"/>
-      <x:c r="AT28" s="15"/>
-      <x:c r="AU28" s="15"/>
-      <x:c r="AV28" s="90"/>
-      <x:c r="AW28" s="90"/>
-      <x:c r="AX28" s="90"/>
-      <x:c r="AY28" s="91" t="s">
-        <x:v>77</x:v>
-      </x:c>
-      <x:c r="AZ28" s="91"/>
-      <x:c r="BA28" s="91"/>
-      <x:c r="BB28" s="91"/>
-      <x:c r="BC28" s="91"/>
-      <x:c r="BD28" s="91"/>
-      <x:c r="BE28" s="91"/>
-      <x:c r="BF28" s="91"/>
-      <x:c r="BG28" s="91"/>
-      <x:c r="BH28" s="91"/>
-      <x:c r="BI28" s="91"/>
-      <x:c r="BJ28" s="91"/>
-      <x:c r="BK28" s="91"/>
-      <x:c r="BL28" s="91"/>
-      <x:c r="BM28" s="91"/>
-      <x:c r="BN28" s="91"/>
-      <x:c r="BO28" s="91"/>
-      <x:c r="BP28" s="91"/>
-      <x:c r="BQ28" s="91"/>
-      <x:c r="BR28" s="91"/>
-      <x:c r="BS28" s="91"/>
-      <x:c r="BT28" s="91"/>
-      <x:c r="BU28" s="91"/>
-      <x:c r="BV28" s="91"/>
-      <x:c r="BW28" s="91"/>
-      <x:c r="BX28" s="91"/>
-      <x:c r="BY28" s="91"/>
-      <x:c r="BZ28" s="91"/>
-      <x:c r="CA28" s="91"/>
-      <x:c r="CB28" s="91"/>
-      <x:c r="CC28" s="91"/>
-      <x:c r="CD28" s="91"/>
-      <x:c r="CE28" s="91"/>
-      <x:c r="CF28" s="91"/>
-      <x:c r="CG28" s="92"/>
+    <x:row r="28" spans="1:87" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="I28" s="2"/>
+      <x:c r="J28" s="82" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="K28" s="82"/>
+      <x:c r="L28" s="82"/>
+      <x:c r="M28" s="82"/>
+      <x:c r="N28" s="82"/>
+      <x:c r="O28" s="82"/>
+      <x:c r="P28" s="82"/>
+      <x:c r="Q28" s="82"/>
+      <x:c r="R28" s="82"/>
+      <x:c r="S28" s="82"/>
+      <x:c r="T28" s="82"/>
+      <x:c r="U28" s="82"/>
+      <x:c r="V28" s="82"/>
+      <x:c r="W28" s="82"/>
+      <x:c r="X28" s="82"/>
+      <x:c r="Y28" s="82"/>
+      <x:c r="Z28" s="83"/>
+      <x:c r="AA28" s="83"/>
+      <x:c r="AB28" s="83"/>
+      <x:c r="AC28" s="83"/>
+      <x:c r="AD28" s="83"/>
+      <x:c r="AE28" s="83"/>
+      <x:c r="AF28" s="12"/>
+      <x:c r="AG28" s="83"/>
+      <x:c r="AH28" s="83"/>
+      <x:c r="AI28" s="83"/>
+      <x:c r="AJ28" s="83"/>
+      <x:c r="AK28" s="83"/>
+      <x:c r="AL28" s="83"/>
+      <x:c r="AM28" s="83"/>
+      <x:c r="AN28" s="83"/>
+      <x:c r="AO28" s="83"/>
+      <x:c r="AP28" s="83"/>
+      <x:c r="AQ28" s="83"/>
+      <x:c r="AR28" s="83"/>
+      <x:c r="AS28" s="83"/>
+      <x:c r="AT28" s="83"/>
+      <x:c r="AU28" s="83"/>
+      <x:c r="AV28" s="82"/>
+      <x:c r="AW28" s="82"/>
+      <x:c r="AX28" s="82"/>
+      <x:c r="AY28" s="83"/>
+      <x:c r="AZ28" s="83"/>
+      <x:c r="BA28" s="83"/>
+      <x:c r="BB28" s="83"/>
+      <x:c r="BC28" s="83"/>
+      <x:c r="BD28" s="83"/>
+      <x:c r="BE28" s="83"/>
+      <x:c r="BF28" s="83"/>
+      <x:c r="BG28" s="83"/>
+      <x:c r="BH28" s="83"/>
+      <x:c r="BI28" s="83"/>
+      <x:c r="BJ28" s="83"/>
+      <x:c r="BK28" s="83"/>
+      <x:c r="BL28" s="83"/>
+      <x:c r="BM28" s="83"/>
+      <x:c r="BN28" s="83"/>
+      <x:c r="BO28" s="83"/>
+      <x:c r="BP28" s="83"/>
+      <x:c r="BQ28" s="83"/>
+      <x:c r="BR28" s="83"/>
+      <x:c r="BS28" s="83"/>
+      <x:c r="BT28" s="83"/>
+      <x:c r="BU28" s="83"/>
+      <x:c r="BV28" s="83"/>
+      <x:c r="BW28" s="83"/>
+      <x:c r="BX28" s="83"/>
+      <x:c r="BY28" s="83"/>
+      <x:c r="BZ28" s="83"/>
+      <x:c r="CA28" s="83"/>
+      <x:c r="CB28" s="83"/>
+      <x:c r="CC28" s="83"/>
+      <x:c r="CD28" s="83"/>
+      <x:c r="CE28" s="83"/>
+      <x:c r="CF28" s="83"/>
+      <x:c r="CG28" s="84"/>
       <x:c r="CI28" s="2"/>
     </x:row>
-    <x:row r="29" spans="1:87" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <x:row r="30" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A30" s="1" t="s">
+    <x:row r="29" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+      <x:c r="I29" s="14"/>
+      <x:c r="J29" s="88"/>
+      <x:c r="K29" s="88"/>
+      <x:c r="L29" s="88"/>
+      <x:c r="M29" s="88"/>
+      <x:c r="N29" s="88"/>
+      <x:c r="O29" s="88"/>
+      <x:c r="P29" s="88"/>
+      <x:c r="Q29" s="88"/>
+      <x:c r="R29" s="88"/>
+      <x:c r="S29" s="88"/>
+      <x:c r="T29" s="88"/>
+      <x:c r="U29" s="88"/>
+      <x:c r="V29" s="88"/>
+      <x:c r="W29" s="88"/>
+      <x:c r="X29" s="88"/>
+      <x:c r="Y29" s="88"/>
+      <x:c r="Z29" s="15" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="AA29" s="15"/>
+      <x:c r="AB29" s="15"/>
+      <x:c r="AC29" s="15"/>
+      <x:c r="AD29" s="15"/>
+      <x:c r="AE29" s="15"/>
+      <x:c r="AF29" s="15"/>
+      <x:c r="AG29" s="15" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="AH29" s="15"/>
+      <x:c r="AI29" s="15"/>
+      <x:c r="AJ29" s="15"/>
+      <x:c r="AK29" s="15"/>
+      <x:c r="AL29" s="15"/>
+      <x:c r="AM29" s="15"/>
+      <x:c r="AN29" s="15"/>
+      <x:c r="AO29" s="15"/>
+      <x:c r="AP29" s="15"/>
+      <x:c r="AQ29" s="15"/>
+      <x:c r="AR29" s="15"/>
+      <x:c r="AS29" s="15"/>
+      <x:c r="AT29" s="15"/>
+      <x:c r="AU29" s="15"/>
+      <x:c r="AV29" s="90"/>
+      <x:c r="AW29" s="90"/>
+      <x:c r="AX29" s="90"/>
+      <x:c r="AY29" s="91" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="AZ29" s="91"/>
+      <x:c r="BA29" s="91"/>
+      <x:c r="BB29" s="91"/>
+      <x:c r="BC29" s="91"/>
+      <x:c r="BD29" s="91"/>
+      <x:c r="BE29" s="91"/>
+      <x:c r="BF29" s="91"/>
+      <x:c r="BG29" s="91"/>
+      <x:c r="BH29" s="91"/>
+      <x:c r="BI29" s="91"/>
+      <x:c r="BJ29" s="91"/>
+      <x:c r="BK29" s="91"/>
+      <x:c r="BL29" s="91"/>
+      <x:c r="BM29" s="91"/>
+      <x:c r="BN29" s="91"/>
+      <x:c r="BO29" s="91"/>
+      <x:c r="BP29" s="91"/>
+      <x:c r="BQ29" s="91"/>
+      <x:c r="BR29" s="91"/>
+      <x:c r="BS29" s="91"/>
+      <x:c r="BT29" s="91"/>
+      <x:c r="BU29" s="91"/>
+      <x:c r="BV29" s="91"/>
+      <x:c r="BW29" s="91"/>
+      <x:c r="BX29" s="91"/>
+      <x:c r="BY29" s="91"/>
+      <x:c r="BZ29" s="91"/>
+      <x:c r="CA29" s="91"/>
+      <x:c r="CB29" s="91"/>
+      <x:c r="CC29" s="91"/>
+      <x:c r="CD29" s="91"/>
+      <x:c r="CE29" s="91"/>
+      <x:c r="CF29" s="91"/>
+      <x:c r="CG29" s="92"/>
+      <x:c r="CI29" s="2"/>
+    </x:row>
+    <x:row r="30" spans="1:87" ht="4.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <x:row r="31" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A31" s="1" t="s">
         <x:v>78</x:v>
       </x:c>
-      <x:c r="W30" s="83"/>
-      <x:c r="X30" s="83"/>
-      <x:c r="Y30" s="83"/>
-      <x:c r="Z30" s="83"/>
-      <x:c r="AA30" s="83"/>
-      <x:c r="AB30" s="83"/>
-      <x:c r="AC30" s="83"/>
-      <x:c r="AD30" s="83"/>
-      <x:c r="AE30" s="83"/>
-      <x:c r="AF30" s="83"/>
-      <x:c r="AG30" s="83"/>
-      <x:c r="AH30" s="83"/>
-      <x:c r="AI30" s="83"/>
-      <x:c r="AJ30" s="83"/>
-      <x:c r="AK30" s="83"/>
-      <x:c r="AL30" s="83"/>
-      <x:c r="AM30" s="83"/>
-      <x:c r="AN30" s="83"/>
-      <x:c r="AO30" s="83"/>
-      <x:c r="AP30" s="83"/>
-      <x:c r="AQ30" s="83"/>
-      <x:c r="AR30" s="83"/>
-      <x:c r="AS30" s="83"/>
-      <x:c r="AT30" s="83"/>
-      <x:c r="AU30" s="83"/>
-      <x:c r="AV30" s="83"/>
-      <x:c r="AW30" s="83"/>
-      <x:c r="AX30" s="83"/>
-      <x:c r="AY30" s="83"/>
-      <x:c r="AZ30" s="83"/>
-      <x:c r="BA30" s="83"/>
-      <x:c r="BB30" s="83"/>
-      <x:c r="BC30" s="83"/>
-      <x:c r="BD30" s="83"/>
-      <x:c r="BE30" s="83"/>
-      <x:c r="BF30" s="83"/>
-      <x:c r="BG30" s="83"/>
-      <x:c r="BH30" s="83"/>
-      <x:c r="BI30" s="83"/>
-      <x:c r="BJ30" s="83"/>
-      <x:c r="BK30" s="83"/>
-      <x:c r="BL30" s="83"/>
-      <x:c r="BM30" s="83"/>
-      <x:c r="BN30" s="83"/>
-      <x:c r="BO30" s="83"/>
-      <x:c r="BP30" s="83"/>
-      <x:c r="BQ30" s="83"/>
-      <x:c r="BR30" s="83"/>
-      <x:c r="BS30" s="83"/>
-      <x:c r="BT30" s="83"/>
-      <x:c r="BU30" s="83"/>
-      <x:c r="BV30" s="83"/>
-      <x:c r="BW30" s="83"/>
-      <x:c r="BX30" s="83"/>
-      <x:c r="BY30" s="83"/>
-      <x:c r="BZ30" s="83"/>
-      <x:c r="CA30" s="83"/>
-      <x:c r="CB30" s="83"/>
-      <x:c r="CC30" s="83"/>
-      <x:c r="CD30" s="83"/>
-      <x:c r="CE30" s="12" t="s">
+      <x:c r="W31" s="83"/>
+      <x:c r="X31" s="83"/>
+      <x:c r="Y31" s="83"/>
+      <x:c r="Z31" s="83"/>
+      <x:c r="AA31" s="83"/>
+      <x:c r="AB31" s="83"/>
+      <x:c r="AC31" s="83"/>
+      <x:c r="AD31" s="83"/>
+      <x:c r="AE31" s="83"/>
+      <x:c r="AF31" s="83"/>
+      <x:c r="AG31" s="83"/>
+      <x:c r="AH31" s="83"/>
+      <x:c r="AI31" s="83"/>
+      <x:c r="AJ31" s="83"/>
+      <x:c r="AK31" s="83"/>
+      <x:c r="AL31" s="83"/>
+      <x:c r="AM31" s="83"/>
+      <x:c r="AN31" s="83"/>
+      <x:c r="AO31" s="83"/>
+      <x:c r="AP31" s="83"/>
+      <x:c r="AQ31" s="83"/>
+      <x:c r="AR31" s="83"/>
+      <x:c r="AS31" s="83"/>
+      <x:c r="AT31" s="83"/>
+      <x:c r="AU31" s="83"/>
+      <x:c r="AV31" s="83"/>
+      <x:c r="AW31" s="83"/>
+      <x:c r="AX31" s="83"/>
+      <x:c r="AY31" s="83"/>
+      <x:c r="AZ31" s="83"/>
+      <x:c r="BA31" s="83"/>
+      <x:c r="BB31" s="83"/>
+      <x:c r="BC31" s="83"/>
+      <x:c r="BD31" s="83"/>
+      <x:c r="BE31" s="83"/>
+      <x:c r="BF31" s="83"/>
+      <x:c r="BG31" s="83"/>
+      <x:c r="BH31" s="83"/>
+      <x:c r="BI31" s="83"/>
+      <x:c r="BJ31" s="83"/>
+      <x:c r="BK31" s="83"/>
+      <x:c r="BL31" s="83"/>
+      <x:c r="BM31" s="83"/>
+      <x:c r="BN31" s="83"/>
+      <x:c r="BO31" s="83"/>
+      <x:c r="BP31" s="83"/>
+      <x:c r="BQ31" s="83"/>
+      <x:c r="BR31" s="83"/>
+      <x:c r="BS31" s="83"/>
+      <x:c r="BT31" s="83"/>
+      <x:c r="BU31" s="83"/>
+      <x:c r="BV31" s="83"/>
+      <x:c r="BW31" s="83"/>
+      <x:c r="BX31" s="83"/>
+      <x:c r="BY31" s="83"/>
+      <x:c r="BZ31" s="83"/>
+      <x:c r="CA31" s="83"/>
+      <x:c r="CB31" s="83"/>
+      <x:c r="CC31" s="83"/>
+      <x:c r="CD31" s="83"/>
+      <x:c r="CE31" s="12" t="s">
         <x:v>79</x:v>
       </x:c>
-      <x:c r="CF30" s="12"/>
-      <x:c r="CG30" s="12"/>
-    </x:row>
-    <x:row r="31" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="W31" s="95" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="X31" s="95"/>
-      <x:c r="Y31" s="95"/>
-      <x:c r="Z31" s="95"/>
-      <x:c r="AA31" s="95"/>
-      <x:c r="AB31" s="95"/>
-      <x:c r="AC31" s="95"/>
-      <x:c r="AD31" s="95"/>
-      <x:c r="AE31" s="95"/>
-      <x:c r="AF31" s="95"/>
-      <x:c r="AG31" s="95"/>
-      <x:c r="AH31" s="95"/>
-      <x:c r="AI31" s="95"/>
-      <x:c r="AJ31" s="95"/>
-      <x:c r="AK31" s="95"/>
-      <x:c r="AL31" s="95"/>
-      <x:c r="AM31" s="95"/>
-      <x:c r="AN31" s="95"/>
-      <x:c r="AO31" s="95"/>
-      <x:c r="AP31" s="95"/>
-      <x:c r="AQ31" s="95"/>
-      <x:c r="AR31" s="95"/>
-      <x:c r="AS31" s="95"/>
-      <x:c r="AT31" s="95"/>
-      <x:c r="AU31" s="95"/>
-      <x:c r="AV31" s="95"/>
-      <x:c r="AW31" s="95"/>
-      <x:c r="AX31" s="95"/>
-      <x:c r="AY31" s="95"/>
-      <x:c r="AZ31" s="95"/>
-      <x:c r="BA31" s="95"/>
-      <x:c r="BB31" s="95"/>
-      <x:c r="BC31" s="95"/>
-      <x:c r="BD31" s="95"/>
-      <x:c r="BE31" s="95"/>
-      <x:c r="BF31" s="95"/>
-      <x:c r="BG31" s="95"/>
-      <x:c r="BH31" s="95"/>
-      <x:c r="BI31" s="95"/>
-      <x:c r="BJ31" s="95"/>
-      <x:c r="BK31" s="95"/>
-      <x:c r="BL31" s="95"/>
-      <x:c r="BM31" s="95"/>
-      <x:c r="BN31" s="95"/>
-      <x:c r="BO31" s="95"/>
-      <x:c r="BP31" s="95"/>
-      <x:c r="BQ31" s="95"/>
-      <x:c r="BR31" s="95"/>
-      <x:c r="BS31" s="95"/>
-      <x:c r="BT31" s="95"/>
-      <x:c r="BU31" s="95"/>
-      <x:c r="BV31" s="95"/>
-      <x:c r="BW31" s="95"/>
-      <x:c r="BX31" s="95"/>
-      <x:c r="BY31" s="95"/>
-      <x:c r="BZ31" s="95"/>
-      <x:c r="CA31" s="95"/>
-      <x:c r="CB31" s="95"/>
-      <x:c r="CC31" s="95"/>
-      <x:c r="CD31" s="95"/>
-      <x:c r="CE31" s="12"/>
       <x:c r="CF31" s="12"/>
       <x:c r="CG31" s="12"/>
     </x:row>
     <x:row r="32" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A32" s="1" t="s">
-        <x:v>81</x:v>
-      </x:c>
-      <x:c r="Q32" s="83"/>
-      <x:c r="R32" s="83"/>
-      <x:c r="S32" s="83"/>
-      <x:c r="T32" s="83"/>
-      <x:c r="U32" s="83"/>
-      <x:c r="V32" s="83"/>
-      <x:c r="W32" s="83"/>
-      <x:c r="X32" s="83"/>
-      <x:c r="Y32" s="83"/>
-      <x:c r="Z32" s="83"/>
-      <x:c r="AA32" s="83"/>
-      <x:c r="AB32" s="83"/>
-      <x:c r="AC32" s="83"/>
-      <x:c r="AD32" s="83"/>
-      <x:c r="AE32" s="83"/>
-      <x:c r="AF32" s="83"/>
-      <x:c r="AG32" s="83"/>
-      <x:c r="AH32" s="83"/>
-      <x:c r="AI32" s="83"/>
-      <x:c r="AJ32" s="83"/>
-      <x:c r="AK32" s="83"/>
-      <x:c r="AL32" s="83"/>
-      <x:c r="AM32" s="83"/>
-      <x:c r="AN32" s="83"/>
-      <x:c r="AO32" s="83"/>
-      <x:c r="AP32" s="83"/>
-      <x:c r="AQ32" s="83"/>
-      <x:c r="AR32" s="83"/>
-      <x:c r="AS32" s="83"/>
-      <x:c r="AT32" s="83"/>
-      <x:c r="AU32" s="83"/>
-      <x:c r="AV32" s="83"/>
-      <x:c r="AW32" s="83"/>
-      <x:c r="AX32" s="83"/>
-      <x:c r="AY32" s="83"/>
-      <x:c r="AZ32" s="83"/>
-      <x:c r="BA32" s="83"/>
-      <x:c r="BB32" s="83"/>
-      <x:c r="BC32" s="83"/>
-      <x:c r="BD32" s="83"/>
-      <x:c r="BE32" s="83"/>
-      <x:c r="BF32" s="83"/>
-      <x:c r="BG32" s="83"/>
-      <x:c r="BH32" s="83"/>
-      <x:c r="BI32" s="83"/>
-      <x:c r="BJ32" s="83"/>
-      <x:c r="BK32" s="83"/>
-      <x:c r="BL32" s="83"/>
-      <x:c r="BM32" s="83"/>
-      <x:c r="BN32" s="83"/>
-      <x:c r="BO32" s="83"/>
-      <x:c r="BP32" s="83"/>
-      <x:c r="BQ32" s="83"/>
-      <x:c r="BR32" s="83"/>
-      <x:c r="BS32" s="83"/>
-      <x:c r="BT32" s="83"/>
-      <x:c r="BU32" s="83"/>
-      <x:c r="BV32" s="83"/>
-      <x:c r="BW32" s="83"/>
-      <x:c r="BX32" s="83"/>
-      <x:c r="BY32" s="83"/>
-      <x:c r="BZ32" s="83"/>
-      <x:c r="CA32" s="83"/>
-      <x:c r="CB32" s="83"/>
-      <x:c r="CC32" s="83"/>
-      <x:c r="CD32" s="83"/>
-      <x:c r="CE32" s="12" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="W32" s="95" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="X32" s="95"/>
+      <x:c r="Y32" s="95"/>
+      <x:c r="Z32" s="95"/>
+      <x:c r="AA32" s="95"/>
+      <x:c r="AB32" s="95"/>
+      <x:c r="AC32" s="95"/>
+      <x:c r="AD32" s="95"/>
+      <x:c r="AE32" s="95"/>
+      <x:c r="AF32" s="95"/>
+      <x:c r="AG32" s="95"/>
+      <x:c r="AH32" s="95"/>
+      <x:c r="AI32" s="95"/>
+      <x:c r="AJ32" s="95"/>
+      <x:c r="AK32" s="95"/>
+      <x:c r="AL32" s="95"/>
+      <x:c r="AM32" s="95"/>
+      <x:c r="AN32" s="95"/>
+      <x:c r="AO32" s="95"/>
+      <x:c r="AP32" s="95"/>
+      <x:c r="AQ32" s="95"/>
+      <x:c r="AR32" s="95"/>
+      <x:c r="AS32" s="95"/>
+      <x:c r="AT32" s="95"/>
+      <x:c r="AU32" s="95"/>
+      <x:c r="AV32" s="95"/>
+      <x:c r="AW32" s="95"/>
+      <x:c r="AX32" s="95"/>
+      <x:c r="AY32" s="95"/>
+      <x:c r="AZ32" s="95"/>
+      <x:c r="BA32" s="95"/>
+      <x:c r="BB32" s="95"/>
+      <x:c r="BC32" s="95"/>
+      <x:c r="BD32" s="95"/>
+      <x:c r="BE32" s="95"/>
+      <x:c r="BF32" s="95"/>
+      <x:c r="BG32" s="95"/>
+      <x:c r="BH32" s="95"/>
+      <x:c r="BI32" s="95"/>
+      <x:c r="BJ32" s="95"/>
+      <x:c r="BK32" s="95"/>
+      <x:c r="BL32" s="95"/>
+      <x:c r="BM32" s="95"/>
+      <x:c r="BN32" s="95"/>
+      <x:c r="BO32" s="95"/>
+      <x:c r="BP32" s="95"/>
+      <x:c r="BQ32" s="95"/>
+      <x:c r="BR32" s="95"/>
+      <x:c r="BS32" s="95"/>
+      <x:c r="BT32" s="95"/>
+      <x:c r="BU32" s="95"/>
+      <x:c r="BV32" s="95"/>
+      <x:c r="BW32" s="95"/>
+      <x:c r="BX32" s="95"/>
+      <x:c r="BY32" s="95"/>
+      <x:c r="BZ32" s="95"/>
+      <x:c r="CA32" s="95"/>
+      <x:c r="CB32" s="95"/>
+      <x:c r="CC32" s="95"/>
+      <x:c r="CD32" s="95"/>
+      <x:c r="CE32" s="12"/>
       <x:c r="CF32" s="12"/>
       <x:c r="CG32" s="12"/>
     </x:row>
     <x:row r="33" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="Q33" s="94" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="R33" s="94"/>
-      <x:c r="S33" s="94"/>
-      <x:c r="T33" s="94"/>
-      <x:c r="U33" s="94"/>
-      <x:c r="V33" s="94"/>
-      <x:c r="W33" s="94"/>
-      <x:c r="X33" s="94"/>
-      <x:c r="Y33" s="94"/>
-      <x:c r="Z33" s="94"/>
-      <x:c r="AA33" s="94"/>
-      <x:c r="AB33" s="94"/>
-      <x:c r="AC33" s="94"/>
-      <x:c r="AD33" s="94"/>
-      <x:c r="AE33" s="94"/>
-      <x:c r="AF33" s="94"/>
-      <x:c r="AG33" s="94"/>
-      <x:c r="AH33" s="94"/>
-      <x:c r="AI33" s="94"/>
-      <x:c r="AJ33" s="94"/>
-      <x:c r="AK33" s="94"/>
-      <x:c r="AL33" s="94"/>
-      <x:c r="AM33" s="94"/>
-      <x:c r="AN33" s="94"/>
-      <x:c r="AO33" s="94"/>
-      <x:c r="AP33" s="94"/>
-      <x:c r="AQ33" s="94"/>
-      <x:c r="AR33" s="94"/>
-      <x:c r="AS33" s="94"/>
-      <x:c r="AT33" s="94"/>
-      <x:c r="AU33" s="94"/>
-      <x:c r="AV33" s="94"/>
-      <x:c r="AW33" s="94"/>
-      <x:c r="AX33" s="94"/>
-      <x:c r="AY33" s="94"/>
-      <x:c r="AZ33" s="94"/>
-      <x:c r="BA33" s="94"/>
-      <x:c r="BB33" s="94"/>
-      <x:c r="BC33" s="94"/>
-      <x:c r="BD33" s="94"/>
-      <x:c r="BE33" s="94"/>
-      <x:c r="BF33" s="94"/>
-      <x:c r="BG33" s="94"/>
-      <x:c r="BH33" s="94"/>
-      <x:c r="BI33" s="94"/>
-      <x:c r="BJ33" s="94"/>
-      <x:c r="BK33" s="94"/>
-      <x:c r="BL33" s="94"/>
-      <x:c r="BM33" s="94"/>
-      <x:c r="BN33" s="94"/>
-      <x:c r="BO33" s="94"/>
-      <x:c r="BP33" s="94"/>
-      <x:c r="BQ33" s="94"/>
-      <x:c r="BR33" s="94"/>
-      <x:c r="BS33" s="94"/>
-      <x:c r="BT33" s="94"/>
-      <x:c r="BU33" s="94"/>
-      <x:c r="BV33" s="94"/>
-      <x:c r="BW33" s="94"/>
-      <x:c r="BX33" s="94"/>
-      <x:c r="BY33" s="94"/>
-      <x:c r="BZ33" s="94"/>
-      <x:c r="CA33" s="94"/>
-      <x:c r="CB33" s="94"/>
-      <x:c r="CC33" s="94"/>
-      <x:c r="CD33" s="94"/>
-      <x:c r="CE33" s="12"/>
+      <x:c r="A33" s="1" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="Q33" s="83"/>
+      <x:c r="R33" s="83"/>
+      <x:c r="S33" s="83"/>
+      <x:c r="T33" s="83"/>
+      <x:c r="U33" s="83"/>
+      <x:c r="V33" s="83"/>
+      <x:c r="W33" s="83"/>
+      <x:c r="X33" s="83"/>
+      <x:c r="Y33" s="83"/>
+      <x:c r="Z33" s="83"/>
+      <x:c r="AA33" s="83"/>
+      <x:c r="AB33" s="83"/>
+      <x:c r="AC33" s="83"/>
+      <x:c r="AD33" s="83"/>
+      <x:c r="AE33" s="83"/>
+      <x:c r="AF33" s="83"/>
+      <x:c r="AG33" s="83"/>
+      <x:c r="AH33" s="83"/>
+      <x:c r="AI33" s="83"/>
+      <x:c r="AJ33" s="83"/>
+      <x:c r="AK33" s="83"/>
+      <x:c r="AL33" s="83"/>
+      <x:c r="AM33" s="83"/>
+      <x:c r="AN33" s="83"/>
+      <x:c r="AO33" s="83"/>
+      <x:c r="AP33" s="83"/>
+      <x:c r="AQ33" s="83"/>
+      <x:c r="AR33" s="83"/>
+      <x:c r="AS33" s="83"/>
+      <x:c r="AT33" s="83"/>
+      <x:c r="AU33" s="83"/>
+      <x:c r="AV33" s="83"/>
+      <x:c r="AW33" s="83"/>
+      <x:c r="AX33" s="83"/>
+      <x:c r="AY33" s="83"/>
+      <x:c r="AZ33" s="83"/>
+      <x:c r="BA33" s="83"/>
+      <x:c r="BB33" s="83"/>
+      <x:c r="BC33" s="83"/>
+      <x:c r="BD33" s="83"/>
+      <x:c r="BE33" s="83"/>
+      <x:c r="BF33" s="83"/>
+      <x:c r="BG33" s="83"/>
+      <x:c r="BH33" s="83"/>
+      <x:c r="BI33" s="83"/>
+      <x:c r="BJ33" s="83"/>
+      <x:c r="BK33" s="83"/>
+      <x:c r="BL33" s="83"/>
+      <x:c r="BM33" s="83"/>
+      <x:c r="BN33" s="83"/>
+      <x:c r="BO33" s="83"/>
+      <x:c r="BP33" s="83"/>
+      <x:c r="BQ33" s="83"/>
+      <x:c r="BR33" s="83"/>
+      <x:c r="BS33" s="83"/>
+      <x:c r="BT33" s="83"/>
+      <x:c r="BU33" s="83"/>
+      <x:c r="BV33" s="83"/>
+      <x:c r="BW33" s="83"/>
+      <x:c r="BX33" s="83"/>
+      <x:c r="BY33" s="83"/>
+      <x:c r="BZ33" s="83"/>
+      <x:c r="CA33" s="83"/>
+      <x:c r="CB33" s="83"/>
+      <x:c r="CC33" s="83"/>
+      <x:c r="CD33" s="83"/>
+      <x:c r="CE33" s="12" t="s">
+        <x:v>82</x:v>
+      </x:c>
       <x:c r="CF33" s="12"/>
       <x:c r="CG33" s="12"/>
     </x:row>
     <x:row r="34" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A34" s="1" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="AP34" s="11"/>
-      <x:c r="AQ34" s="2"/>
-      <x:c r="AR34" s="82" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="AS34" s="82"/>
-      <x:c r="AT34" s="82"/>
-      <x:c r="AU34" s="82"/>
-      <x:c r="AV34" s="82"/>
-      <x:c r="AW34" s="82"/>
-      <x:c r="AX34" s="82"/>
-      <x:c r="AY34" s="82"/>
-      <x:c r="AZ34" s="82"/>
-      <x:c r="BA34" s="82"/>
-      <x:c r="BB34" s="82"/>
-      <x:c r="BC34" s="82"/>
-      <x:c r="BD34" s="82"/>
-      <x:c r="BE34" s="82"/>
-      <x:c r="BF34" s="82"/>
-      <x:c r="BG34" s="82"/>
-      <x:c r="BH34" s="82"/>
-      <x:c r="BI34" s="82"/>
-      <x:c r="BJ34" s="82"/>
-      <x:c r="BK34" s="82"/>
-      <x:c r="BL34" s="82"/>
-      <x:c r="BM34" s="82"/>
-      <x:c r="BN34" s="82"/>
-      <x:c r="BO34" s="82"/>
-      <x:c r="BP34" s="82"/>
-      <x:c r="BQ34" s="82"/>
-      <x:c r="BR34" s="82"/>
-      <x:c r="BS34" s="82"/>
-      <x:c r="BT34" s="82"/>
-      <x:c r="BU34" s="82"/>
-      <x:c r="BV34" s="82"/>
-      <x:c r="BW34" s="82"/>
-      <x:c r="BX34" s="82"/>
-      <x:c r="BY34" s="82"/>
-      <x:c r="BZ34" s="82"/>
-      <x:c r="CA34" s="82"/>
-      <x:c r="CB34" s="82"/>
-      <x:c r="CC34" s="82"/>
-      <x:c r="CD34" s="82"/>
-      <x:c r="CE34" s="82"/>
-      <x:c r="CF34" s="82"/>
-      <x:c r="CG34" s="82"/>
+      <x:c r="Q34" s="94" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="R34" s="94"/>
+      <x:c r="S34" s="94"/>
+      <x:c r="T34" s="94"/>
+      <x:c r="U34" s="94"/>
+      <x:c r="V34" s="94"/>
+      <x:c r="W34" s="94"/>
+      <x:c r="X34" s="94"/>
+      <x:c r="Y34" s="94"/>
+      <x:c r="Z34" s="94"/>
+      <x:c r="AA34" s="94"/>
+      <x:c r="AB34" s="94"/>
+      <x:c r="AC34" s="94"/>
+      <x:c r="AD34" s="94"/>
+      <x:c r="AE34" s="94"/>
+      <x:c r="AF34" s="94"/>
+      <x:c r="AG34" s="94"/>
+      <x:c r="AH34" s="94"/>
+      <x:c r="AI34" s="94"/>
+      <x:c r="AJ34" s="94"/>
+      <x:c r="AK34" s="94"/>
+      <x:c r="AL34" s="94"/>
+      <x:c r="AM34" s="94"/>
+      <x:c r="AN34" s="94"/>
+      <x:c r="AO34" s="94"/>
+      <x:c r="AP34" s="94"/>
+      <x:c r="AQ34" s="94"/>
+      <x:c r="AR34" s="94"/>
+      <x:c r="AS34" s="94"/>
+      <x:c r="AT34" s="94"/>
+      <x:c r="AU34" s="94"/>
+      <x:c r="AV34" s="94"/>
+      <x:c r="AW34" s="94"/>
+      <x:c r="AX34" s="94"/>
+      <x:c r="AY34" s="94"/>
+      <x:c r="AZ34" s="94"/>
+      <x:c r="BA34" s="94"/>
+      <x:c r="BB34" s="94"/>
+      <x:c r="BC34" s="94"/>
+      <x:c r="BD34" s="94"/>
+      <x:c r="BE34" s="94"/>
+      <x:c r="BF34" s="94"/>
+      <x:c r="BG34" s="94"/>
+      <x:c r="BH34" s="94"/>
+      <x:c r="BI34" s="94"/>
+      <x:c r="BJ34" s="94"/>
+      <x:c r="BK34" s="94"/>
+      <x:c r="BL34" s="94"/>
+      <x:c r="BM34" s="94"/>
+      <x:c r="BN34" s="94"/>
+      <x:c r="BO34" s="94"/>
+      <x:c r="BP34" s="94"/>
+      <x:c r="BQ34" s="94"/>
+      <x:c r="BR34" s="94"/>
+      <x:c r="BS34" s="94"/>
+      <x:c r="BT34" s="94"/>
+      <x:c r="BU34" s="94"/>
+      <x:c r="BV34" s="94"/>
+      <x:c r="BW34" s="94"/>
+      <x:c r="BX34" s="94"/>
+      <x:c r="BY34" s="94"/>
+      <x:c r="BZ34" s="94"/>
+      <x:c r="CA34" s="94"/>
+      <x:c r="CB34" s="94"/>
+      <x:c r="CC34" s="94"/>
+      <x:c r="CD34" s="94"/>
+      <x:c r="CE34" s="12"/>
+      <x:c r="CF34" s="12"/>
+      <x:c r="CG34" s="12"/>
     </x:row>
     <x:row r="35" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A35" s="8"/>
-      <x:c r="B35" s="8"/>
-      <x:c r="C35" s="8"/>
-      <x:c r="D35" s="8"/>
-      <x:c r="E35" s="8"/>
-      <x:c r="F35" s="8"/>
-      <x:c r="G35" s="8"/>
-      <x:c r="H35" s="8"/>
-      <x:c r="I35" s="8"/>
-      <x:c r="J35" s="8"/>
-      <x:c r="K35" s="8"/>
-      <x:c r="L35" s="8"/>
-      <x:c r="M35" s="8"/>
-      <x:c r="N35" s="16"/>
-      <x:c r="O35" s="8"/>
-      <x:c r="P35" s="8"/>
-      <x:c r="Q35" s="8"/>
-      <x:c r="R35" s="8"/>
-      <x:c r="S35" s="8"/>
-      <x:c r="T35" s="8"/>
-      <x:c r="U35" s="8"/>
-      <x:c r="V35" s="8"/>
-      <x:c r="W35" s="8"/>
-      <x:c r="X35" s="8"/>
-      <x:c r="Y35" s="16"/>
-      <x:c r="Z35" s="8"/>
-      <x:c r="AA35" s="8"/>
-      <x:c r="AB35" s="8"/>
-      <x:c r="AC35" s="8"/>
-      <x:c r="AD35" s="8"/>
-      <x:c r="AE35" s="8"/>
-      <x:c r="AF35" s="8"/>
-      <x:c r="AG35" s="8"/>
-      <x:c r="AH35" s="8"/>
-      <x:c r="AI35" s="8"/>
-      <x:c r="AJ35" s="8"/>
-      <x:c r="AK35" s="8"/>
-      <x:c r="AL35" s="8"/>
-      <x:c r="AM35" s="8"/>
-      <x:c r="AN35" s="16" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="AO35" s="16"/>
-      <x:c r="AP35" s="96"/>
+      <x:c r="A35" s="1" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="AP35" s="11"/>
       <x:c r="AQ35" s="2"/>
-      <x:c r="AR35" s="8"/>
-      <x:c r="AS35" s="8"/>
-      <x:c r="AT35" s="8"/>
-      <x:c r="AU35" s="8"/>
-      <x:c r="AV35" s="8"/>
-      <x:c r="AW35" s="8"/>
-      <x:c r="AX35" s="8"/>
-      <x:c r="AY35" s="8"/>
-      <x:c r="AZ35" s="8"/>
-      <x:c r="BA35" s="8"/>
-      <x:c r="BB35" s="8"/>
-      <x:c r="BC35" s="8"/>
-      <x:c r="BD35" s="8"/>
-      <x:c r="BE35" s="16"/>
-      <x:c r="BF35" s="8"/>
-      <x:c r="BG35" s="8"/>
-      <x:c r="BH35" s="8"/>
-      <x:c r="BI35" s="8"/>
-      <x:c r="BJ35" s="8"/>
-      <x:c r="BK35" s="8"/>
-      <x:c r="BL35" s="8"/>
-      <x:c r="BM35" s="8"/>
-      <x:c r="BN35" s="8"/>
-      <x:c r="BO35" s="8"/>
-      <x:c r="BP35" s="16"/>
-      <x:c r="BQ35" s="3"/>
-      <x:c r="BR35" s="8"/>
-      <x:c r="BS35" s="8"/>
-      <x:c r="BT35" s="8"/>
-      <x:c r="BU35" s="8"/>
-      <x:c r="BV35" s="8"/>
-      <x:c r="BW35" s="8"/>
-      <x:c r="BX35" s="8"/>
-      <x:c r="BY35" s="8"/>
-      <x:c r="BZ35" s="8"/>
-      <x:c r="CA35" s="8"/>
-      <x:c r="CB35" s="8"/>
-      <x:c r="CC35" s="8"/>
-      <x:c r="CD35" s="8"/>
-      <x:c r="CE35" s="12" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="CF35" s="12"/>
-      <x:c r="CG35" s="12"/>
+      <x:c r="AR35" s="82" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="AS35" s="82"/>
+      <x:c r="AT35" s="82"/>
+      <x:c r="AU35" s="82"/>
+      <x:c r="AV35" s="82"/>
+      <x:c r="AW35" s="82"/>
+      <x:c r="AX35" s="82"/>
+      <x:c r="AY35" s="82"/>
+      <x:c r="AZ35" s="82"/>
+      <x:c r="BA35" s="82"/>
+      <x:c r="BB35" s="82"/>
+      <x:c r="BC35" s="82"/>
+      <x:c r="BD35" s="82"/>
+      <x:c r="BE35" s="82"/>
+      <x:c r="BF35" s="82"/>
+      <x:c r="BG35" s="82"/>
+      <x:c r="BH35" s="82"/>
+      <x:c r="BI35" s="82"/>
+      <x:c r="BJ35" s="82"/>
+      <x:c r="BK35" s="82"/>
+      <x:c r="BL35" s="82"/>
+      <x:c r="BM35" s="82"/>
+      <x:c r="BN35" s="82"/>
+      <x:c r="BO35" s="82"/>
+      <x:c r="BP35" s="82"/>
+      <x:c r="BQ35" s="82"/>
+      <x:c r="BR35" s="82"/>
+      <x:c r="BS35" s="82"/>
+      <x:c r="BT35" s="82"/>
+      <x:c r="BU35" s="82"/>
+      <x:c r="BV35" s="82"/>
+      <x:c r="BW35" s="82"/>
+      <x:c r="BX35" s="82"/>
+      <x:c r="BY35" s="82"/>
+      <x:c r="BZ35" s="82"/>
+      <x:c r="CA35" s="82"/>
+      <x:c r="CB35" s="82"/>
+      <x:c r="CC35" s="82"/>
+      <x:c r="CD35" s="82"/>
+      <x:c r="CE35" s="82"/>
+      <x:c r="CF35" s="82"/>
+      <x:c r="CG35" s="82"/>
     </x:row>
     <x:row r="36" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A36" s="17" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="B36" s="17"/>
-      <x:c r="C36" s="17"/>
-      <x:c r="D36" s="17"/>
-      <x:c r="E36" s="17"/>
-      <x:c r="F36" s="17"/>
-      <x:c r="G36" s="17"/>
-      <x:c r="H36" s="17"/>
-      <x:c r="I36" s="17"/>
-      <x:c r="J36" s="17"/>
-      <x:c r="K36" s="17"/>
-      <x:c r="L36" s="17"/>
-      <x:c r="M36" s="17"/>
-      <x:c r="N36" s="17"/>
-      <x:c r="O36" s="17" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="P36" s="17"/>
-      <x:c r="Q36" s="17"/>
-      <x:c r="R36" s="17"/>
-      <x:c r="S36" s="17"/>
-      <x:c r="T36" s="17"/>
-      <x:c r="U36" s="17"/>
-      <x:c r="V36" s="17"/>
-      <x:c r="W36" s="17"/>
-      <x:c r="X36" s="17"/>
-      <x:c r="Y36" s="17"/>
-      <x:c r="Z36" s="17" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="AA36" s="17"/>
-      <x:c r="AB36" s="17"/>
-      <x:c r="AC36" s="17"/>
-      <x:c r="AD36" s="17"/>
-      <x:c r="AE36" s="17"/>
-      <x:c r="AF36" s="17"/>
-      <x:c r="AG36" s="17"/>
-      <x:c r="AH36" s="17"/>
-      <x:c r="AI36" s="17"/>
-      <x:c r="AJ36" s="17"/>
-      <x:c r="AK36" s="17"/>
-      <x:c r="AL36" s="17"/>
-      <x:c r="AM36" s="17"/>
-      <x:c r="AN36" s="99"/>
-      <x:c r="AO36" s="99"/>
-      <x:c r="AP36" s="100"/>
-      <x:c r="AQ36" s="18"/>
-      <x:c r="AR36" s="17" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="AS36" s="17"/>
-      <x:c r="AT36" s="17"/>
-      <x:c r="AU36" s="17"/>
-      <x:c r="AV36" s="17"/>
-      <x:c r="AW36" s="17"/>
-      <x:c r="AX36" s="17"/>
-      <x:c r="AY36" s="17"/>
-      <x:c r="AZ36" s="17"/>
-      <x:c r="BA36" s="17"/>
-      <x:c r="BB36" s="17"/>
-      <x:c r="BC36" s="17"/>
-      <x:c r="BD36" s="17"/>
-      <x:c r="BE36" s="17"/>
-      <x:c r="BF36" s="17" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BG36" s="17"/>
-      <x:c r="BH36" s="17"/>
-      <x:c r="BI36" s="17"/>
-      <x:c r="BJ36" s="17"/>
-      <x:c r="BK36" s="17"/>
-      <x:c r="BL36" s="17"/>
-      <x:c r="BM36" s="17"/>
-      <x:c r="BN36" s="17"/>
-      <x:c r="BO36" s="17"/>
-      <x:c r="BP36" s="17"/>
-      <x:c r="BQ36" s="17" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="BR36" s="17"/>
-      <x:c r="BS36" s="17"/>
-      <x:c r="BT36" s="17"/>
-      <x:c r="BU36" s="17"/>
-      <x:c r="BV36" s="17"/>
-      <x:c r="BW36" s="17"/>
-      <x:c r="BX36" s="17"/>
-      <x:c r="BY36" s="17"/>
-      <x:c r="BZ36" s="17"/>
-      <x:c r="CA36" s="17"/>
-      <x:c r="CB36" s="17"/>
-      <x:c r="CC36" s="17"/>
-      <x:c r="CD36" s="17"/>
-      <x:c r="CE36" s="12"/>
+      <x:c r="A36" s="8"/>
+      <x:c r="B36" s="8"/>
+      <x:c r="C36" s="8"/>
+      <x:c r="D36" s="8"/>
+      <x:c r="E36" s="8"/>
+      <x:c r="F36" s="8"/>
+      <x:c r="G36" s="8"/>
+      <x:c r="H36" s="8"/>
+      <x:c r="I36" s="8"/>
+      <x:c r="J36" s="8"/>
+      <x:c r="K36" s="8"/>
+      <x:c r="L36" s="8"/>
+      <x:c r="M36" s="8"/>
+      <x:c r="N36" s="16"/>
+      <x:c r="O36" s="8"/>
+      <x:c r="P36" s="8"/>
+      <x:c r="Q36" s="8"/>
+      <x:c r="R36" s="8"/>
+      <x:c r="S36" s="8"/>
+      <x:c r="T36" s="8"/>
+      <x:c r="U36" s="8"/>
+      <x:c r="V36" s="8"/>
+      <x:c r="W36" s="8"/>
+      <x:c r="X36" s="8"/>
+      <x:c r="Y36" s="16"/>
+      <x:c r="Z36" s="8"/>
+      <x:c r="AA36" s="8"/>
+      <x:c r="AB36" s="8"/>
+      <x:c r="AC36" s="8"/>
+      <x:c r="AD36" s="8"/>
+      <x:c r="AE36" s="8"/>
+      <x:c r="AF36" s="8"/>
+      <x:c r="AG36" s="8"/>
+      <x:c r="AH36" s="8"/>
+      <x:c r="AI36" s="8"/>
+      <x:c r="AJ36" s="8"/>
+      <x:c r="AK36" s="8"/>
+      <x:c r="AL36" s="8"/>
+      <x:c r="AM36" s="8"/>
+      <x:c r="AN36" s="16" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="AO36" s="16"/>
+      <x:c r="AP36" s="96"/>
+      <x:c r="AQ36" s="2"/>
+      <x:c r="AR36" s="8"/>
+      <x:c r="AS36" s="8"/>
+      <x:c r="AT36" s="8"/>
+      <x:c r="AU36" s="8"/>
+      <x:c r="AV36" s="8"/>
+      <x:c r="AW36" s="8"/>
+      <x:c r="AX36" s="8"/>
+      <x:c r="AY36" s="8"/>
+      <x:c r="AZ36" s="8"/>
+      <x:c r="BA36" s="8"/>
+      <x:c r="BB36" s="8"/>
+      <x:c r="BC36" s="8"/>
+      <x:c r="BD36" s="8"/>
+      <x:c r="BE36" s="16"/>
+      <x:c r="BF36" s="8"/>
+      <x:c r="BG36" s="8"/>
+      <x:c r="BH36" s="8"/>
+      <x:c r="BI36" s="8"/>
+      <x:c r="BJ36" s="8"/>
+      <x:c r="BK36" s="8"/>
+      <x:c r="BL36" s="8"/>
+      <x:c r="BM36" s="8"/>
+      <x:c r="BN36" s="8"/>
+      <x:c r="BO36" s="8"/>
+      <x:c r="BP36" s="16"/>
+      <x:c r="BQ36" s="3"/>
+      <x:c r="BR36" s="8"/>
+      <x:c r="BS36" s="8"/>
+      <x:c r="BT36" s="8"/>
+      <x:c r="BU36" s="8"/>
+      <x:c r="BV36" s="8"/>
+      <x:c r="BW36" s="8"/>
+      <x:c r="BX36" s="8"/>
+      <x:c r="BY36" s="8"/>
+      <x:c r="BZ36" s="8"/>
+      <x:c r="CA36" s="8"/>
+      <x:c r="CB36" s="8"/>
+      <x:c r="CC36" s="8"/>
+      <x:c r="CD36" s="8"/>
+      <x:c r="CE36" s="12" t="s">
+        <x:v>87</x:v>
+      </x:c>
       <x:c r="CF36" s="12"/>
       <x:c r="CG36" s="12"/>
     </x:row>
     <x:row r="37" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A37" s="1" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="P37" s="19" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="Q37" s="8"/>
-      <x:c r="R37" s="8"/>
-      <x:c r="S37" s="1" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="T37" s="8"/>
-      <x:c r="U37" s="8"/>
-      <x:c r="V37" s="8"/>
-      <x:c r="W37" s="8"/>
-      <x:c r="X37" s="8"/>
-      <x:c r="Y37" s="8"/>
-      <x:c r="Z37" s="19" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="AA37" s="19"/>
-      <x:c r="AB37" s="9"/>
-      <x:c r="AC37" s="9"/>
-      <x:c r="AD37" s="1" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="AN37" s="16" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="AO37" s="16"/>
-      <x:c r="AP37" s="96"/>
-      <x:c r="AQ37" s="2"/>
-      <x:c r="AR37" s="1" t="s">
-        <x:v>94</x:v>
-      </x:c>
-      <x:c r="BE37" s="19" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="BF37" s="8"/>
-      <x:c r="BG37" s="8"/>
-      <x:c r="BH37" s="8"/>
-      <x:c r="BI37" s="8"/>
-      <x:c r="BJ37" s="8"/>
-      <x:c r="BK37" s="3" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="BL37" s="8"/>
-      <x:c r="BM37" s="8"/>
-      <x:c r="BN37" s="8"/>
-      <x:c r="BO37" s="8"/>
-      <x:c r="BP37" s="8"/>
-      <x:c r="BQ37" s="8"/>
-      <x:c r="BR37" s="8"/>
-      <x:c r="BS37" s="8"/>
-      <x:c r="BT37" s="8"/>
-      <x:c r="BU37" s="8"/>
-      <x:c r="BV37" s="3"/>
-      <x:c r="BW37" s="3" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="BX37" s="8"/>
-      <x:c r="BY37" s="8"/>
-      <x:c r="BZ37" s="8"/>
-      <x:c r="CA37" s="8"/>
-      <x:c r="CB37" s="8"/>
-      <x:c r="CC37" s="3" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="CD37" s="3"/>
-      <x:c r="CE37" s="12" t="s">
-        <x:v>95</x:v>
-      </x:c>
+      <x:c r="A37" s="17" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B37" s="17"/>
+      <x:c r="C37" s="17"/>
+      <x:c r="D37" s="17"/>
+      <x:c r="E37" s="17"/>
+      <x:c r="F37" s="17"/>
+      <x:c r="G37" s="17"/>
+      <x:c r="H37" s="17"/>
+      <x:c r="I37" s="17"/>
+      <x:c r="J37" s="17"/>
+      <x:c r="K37" s="17"/>
+      <x:c r="L37" s="17"/>
+      <x:c r="M37" s="17"/>
+      <x:c r="N37" s="17"/>
+      <x:c r="O37" s="17" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="P37" s="17"/>
+      <x:c r="Q37" s="17"/>
+      <x:c r="R37" s="17"/>
+      <x:c r="S37" s="17"/>
+      <x:c r="T37" s="17"/>
+      <x:c r="U37" s="17"/>
+      <x:c r="V37" s="17"/>
+      <x:c r="W37" s="17"/>
+      <x:c r="X37" s="17"/>
+      <x:c r="Y37" s="17"/>
+      <x:c r="Z37" s="17" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="AA37" s="17"/>
+      <x:c r="AB37" s="17"/>
+      <x:c r="AC37" s="17"/>
+      <x:c r="AD37" s="17"/>
+      <x:c r="AE37" s="17"/>
+      <x:c r="AF37" s="17"/>
+      <x:c r="AG37" s="17"/>
+      <x:c r="AH37" s="17"/>
+      <x:c r="AI37" s="17"/>
+      <x:c r="AJ37" s="17"/>
+      <x:c r="AK37" s="17"/>
+      <x:c r="AL37" s="17"/>
+      <x:c r="AM37" s="17"/>
+      <x:c r="AN37" s="99"/>
+      <x:c r="AO37" s="99"/>
+      <x:c r="AP37" s="100"/>
+      <x:c r="AQ37" s="18"/>
+      <x:c r="AR37" s="17" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="AS37" s="17"/>
+      <x:c r="AT37" s="17"/>
+      <x:c r="AU37" s="17"/>
+      <x:c r="AV37" s="17"/>
+      <x:c r="AW37" s="17"/>
+      <x:c r="AX37" s="17"/>
+      <x:c r="AY37" s="17"/>
+      <x:c r="AZ37" s="17"/>
+      <x:c r="BA37" s="17"/>
+      <x:c r="BB37" s="17"/>
+      <x:c r="BC37" s="17"/>
+      <x:c r="BD37" s="17"/>
+      <x:c r="BE37" s="17"/>
+      <x:c r="BF37" s="17" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BG37" s="17"/>
+      <x:c r="BH37" s="17"/>
+      <x:c r="BI37" s="17"/>
+      <x:c r="BJ37" s="17"/>
+      <x:c r="BK37" s="17"/>
+      <x:c r="BL37" s="17"/>
+      <x:c r="BM37" s="17"/>
+      <x:c r="BN37" s="17"/>
+      <x:c r="BO37" s="17"/>
+      <x:c r="BP37" s="17"/>
+      <x:c r="BQ37" s="17" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="BR37" s="17"/>
+      <x:c r="BS37" s="17"/>
+      <x:c r="BT37" s="17"/>
+      <x:c r="BU37" s="17"/>
+      <x:c r="BV37" s="17"/>
+      <x:c r="BW37" s="17"/>
+      <x:c r="BX37" s="17"/>
+      <x:c r="BY37" s="17"/>
+      <x:c r="BZ37" s="17"/>
+      <x:c r="CA37" s="17"/>
+      <x:c r="CB37" s="17"/>
+      <x:c r="CC37" s="17"/>
+      <x:c r="CD37" s="17"/>
+      <x:c r="CE37" s="12"/>
       <x:c r="CF37" s="12"/>
       <x:c r="CG37" s="12"/>
     </x:row>
     <x:row r="38" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <x:c r="A38" s="1" t="s">
-        <x:v>96</x:v>
-      </x:c>
-      <x:c r="AN38" s="16"/>
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="P38" s="19" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="Q38" s="8"/>
+      <x:c r="R38" s="8"/>
+      <x:c r="S38" s="1" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="T38" s="8"/>
+      <x:c r="U38" s="8"/>
+      <x:c r="V38" s="8"/>
+      <x:c r="W38" s="8"/>
+      <x:c r="X38" s="8"/>
+      <x:c r="Y38" s="8"/>
+      <x:c r="Z38" s="19" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="AA38" s="19"/>
+      <x:c r="AB38" s="9"/>
+      <x:c r="AC38" s="9"/>
+      <x:c r="AD38" s="1" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="AN38" s="16" t="s">
+        <x:v>93</x:v>
+      </x:c>
       <x:c r="AO38" s="16"/>
       <x:c r="AP38" s="96"/>
       <x:c r="AQ38" s="2"/>
       <x:c r="AR38" s="1" t="s">
-        <x:v>97</x:v>
-      </x:c>
-      <x:c r="CE38" s="12"/>
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="BE38" s="19" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="BF38" s="8"/>
+      <x:c r="BG38" s="8"/>
+      <x:c r="BH38" s="8"/>
+      <x:c r="BI38" s="8"/>
+      <x:c r="BJ38" s="8"/>
+      <x:c r="BK38" s="3" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="BL38" s="8"/>
+      <x:c r="BM38" s="8"/>
+      <x:c r="BN38" s="8"/>
+      <x:c r="BO38" s="8"/>
+      <x:c r="BP38" s="8"/>
+      <x:c r="BQ38" s="8"/>
+      <x:c r="BR38" s="8"/>
+      <x:c r="BS38" s="8"/>
+      <x:c r="BT38" s="8"/>
+      <x:c r="BU38" s="8"/>
+      <x:c r="BV38" s="3"/>
+      <x:c r="BW38" s="3" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="BX38" s="8"/>
+      <x:c r="BY38" s="8"/>
+      <x:c r="BZ38" s="8"/>
+      <x:c r="CA38" s="8"/>
+      <x:c r="CB38" s="8"/>
+      <x:c r="CC38" s="3" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="CD38" s="3"/>
+      <x:c r="CE38" s="12" t="s">
+        <x:v>95</x:v>
+      </x:c>
       <x:c r="CF38" s="12"/>
       <x:c r="CG38" s="12"/>
     </x:row>
     <x:row r="39" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A39" s="8"/>
-      <x:c r="B39" s="8"/>
-      <x:c r="C39" s="8"/>
-      <x:c r="D39" s="8"/>
-      <x:c r="E39" s="8"/>
-      <x:c r="F39" s="8"/>
-      <x:c r="G39" s="8"/>
-      <x:c r="H39" s="8"/>
-      <x:c r="I39" s="8"/>
-      <x:c r="J39" s="8"/>
-      <x:c r="K39" s="8"/>
-      <x:c r="L39" s="8"/>
-      <x:c r="M39" s="8"/>
-      <x:c r="N39" s="8"/>
-      <x:c r="O39" s="8"/>
-      <x:c r="P39" s="8"/>
-      <x:c r="Q39" s="8"/>
-      <x:c r="R39" s="8"/>
-      <x:c r="S39" s="8"/>
-      <x:c r="T39" s="8"/>
-      <x:c r="U39" s="8"/>
-      <x:c r="V39" s="8"/>
-      <x:c r="W39" s="8"/>
-      <x:c r="X39" s="8"/>
-      <x:c r="Y39" s="8"/>
-      <x:c r="Z39" s="8"/>
-      <x:c r="AA39" s="8"/>
-      <x:c r="AB39" s="8"/>
-      <x:c r="AC39" s="8"/>
-      <x:c r="AD39" s="8"/>
-      <x:c r="AE39" s="8"/>
-      <x:c r="AF39" s="8"/>
-      <x:c r="AG39" s="8"/>
-      <x:c r="AH39" s="8"/>
-      <x:c r="AI39" s="8"/>
-      <x:c r="AJ39" s="8"/>
-      <x:c r="AK39" s="8"/>
-      <x:c r="AL39" s="8"/>
-      <x:c r="AM39" s="8"/>
-      <x:c r="AN39" s="16" t="s">
-        <x:v>98</x:v>
-      </x:c>
+      <x:c r="A39" s="1" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="AN39" s="16"/>
       <x:c r="AO39" s="16"/>
       <x:c r="AP39" s="96"/>
       <x:c r="AQ39" s="2"/>
-      <x:c r="AR39" s="8"/>
-      <x:c r="AS39" s="8"/>
-      <x:c r="AT39" s="8"/>
-      <x:c r="AU39" s="8"/>
-      <x:c r="AV39" s="8"/>
-      <x:c r="AW39" s="8"/>
-      <x:c r="AX39" s="8"/>
-      <x:c r="AY39" s="8"/>
-      <x:c r="AZ39" s="8"/>
-      <x:c r="BA39" s="8"/>
-      <x:c r="BB39" s="8"/>
-      <x:c r="BC39" s="8"/>
-      <x:c r="BD39" s="8"/>
-      <x:c r="BE39" s="8"/>
-      <x:c r="BF39" s="8"/>
-      <x:c r="BG39" s="8"/>
-      <x:c r="BH39" s="8"/>
-      <x:c r="BI39" s="8"/>
-      <x:c r="BJ39" s="8"/>
-      <x:c r="BK39" s="8"/>
-      <x:c r="BL39" s="8"/>
-      <x:c r="BM39" s="8"/>
-      <x:c r="BN39" s="8"/>
-      <x:c r="BO39" s="8"/>
-      <x:c r="BP39" s="8"/>
-      <x:c r="BQ39" s="8"/>
-      <x:c r="BR39" s="8"/>
-      <x:c r="BS39" s="8"/>
-      <x:c r="BT39" s="8"/>
-      <x:c r="BU39" s="8"/>
-      <x:c r="BV39" s="8"/>
-      <x:c r="BW39" s="8"/>
-      <x:c r="BX39" s="8"/>
-      <x:c r="BY39" s="8"/>
-      <x:c r="BZ39" s="8"/>
-      <x:c r="CA39" s="8"/>
-      <x:c r="CB39" s="8"/>
-      <x:c r="CC39" s="8"/>
-      <x:c r="CD39" s="8"/>
-      <x:c r="CE39" s="12" t="s">
-        <x:v>99</x:v>
-      </x:c>
+      <x:c r="AR39" s="1" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="CE39" s="12"/>
       <x:c r="CF39" s="12"/>
       <x:c r="CG39" s="12"/>
     </x:row>
     <x:row r="40" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A40" s="101" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="B40" s="101"/>
-      <x:c r="C40" s="101"/>
-      <x:c r="D40" s="101"/>
-      <x:c r="E40" s="101"/>
-      <x:c r="F40" s="101"/>
-      <x:c r="G40" s="101"/>
-      <x:c r="H40" s="101"/>
-      <x:c r="I40" s="101"/>
-      <x:c r="J40" s="101"/>
-      <x:c r="K40" s="101"/>
-      <x:c r="L40" s="101"/>
-      <x:c r="M40" s="101"/>
-      <x:c r="N40" s="101"/>
-      <x:c r="O40" s="101"/>
-      <x:c r="P40" s="101"/>
-      <x:c r="Q40" s="101"/>
-      <x:c r="R40" s="101"/>
-      <x:c r="S40" s="101"/>
-      <x:c r="T40" s="101"/>
-      <x:c r="U40" s="101"/>
-      <x:c r="V40" s="101"/>
-      <x:c r="W40" s="101"/>
-      <x:c r="X40" s="101"/>
-      <x:c r="Y40" s="101"/>
-      <x:c r="Z40" s="101"/>
-      <x:c r="AA40" s="101"/>
-      <x:c r="AB40" s="101"/>
-      <x:c r="AC40" s="101"/>
-      <x:c r="AD40" s="101"/>
-      <x:c r="AE40" s="101"/>
-      <x:c r="AF40" s="101"/>
-      <x:c r="AG40" s="101"/>
-      <x:c r="AH40" s="101"/>
-      <x:c r="AI40" s="101"/>
-      <x:c r="AJ40" s="101"/>
-      <x:c r="AK40" s="101"/>
-      <x:c r="AL40" s="101"/>
-      <x:c r="AM40" s="101"/>
-      <x:c r="AN40" s="99"/>
-      <x:c r="AO40" s="99"/>
-      <x:c r="AP40" s="100"/>
-      <x:c r="AQ40" s="18"/>
-      <x:c r="AR40" s="101" t="s">
-        <x:v>101</x:v>
-      </x:c>
-      <x:c r="AS40" s="101"/>
-      <x:c r="AT40" s="101"/>
-      <x:c r="AU40" s="101"/>
-      <x:c r="AV40" s="101"/>
-      <x:c r="AW40" s="101"/>
-      <x:c r="AX40" s="101"/>
-      <x:c r="AY40" s="101"/>
-      <x:c r="AZ40" s="101"/>
-      <x:c r="BA40" s="101"/>
-      <x:c r="BB40" s="101"/>
-      <x:c r="BC40" s="101"/>
-      <x:c r="BD40" s="101"/>
-      <x:c r="BE40" s="101"/>
-      <x:c r="BF40" s="101"/>
-      <x:c r="BG40" s="101"/>
-      <x:c r="BH40" s="101"/>
-      <x:c r="BI40" s="101"/>
-      <x:c r="BJ40" s="101"/>
-      <x:c r="BK40" s="101"/>
-      <x:c r="BL40" s="101"/>
-      <x:c r="BM40" s="101"/>
-      <x:c r="BN40" s="101"/>
-      <x:c r="BO40" s="101"/>
-      <x:c r="BP40" s="101"/>
-      <x:c r="BQ40" s="101"/>
-      <x:c r="BR40" s="101"/>
-      <x:c r="BS40" s="101"/>
-      <x:c r="BT40" s="101"/>
-      <x:c r="BU40" s="101"/>
-      <x:c r="BV40" s="101"/>
-      <x:c r="BW40" s="101"/>
-      <x:c r="BX40" s="101"/>
-      <x:c r="BY40" s="101"/>
-      <x:c r="BZ40" s="101"/>
-      <x:c r="CA40" s="101"/>
-      <x:c r="CB40" s="101"/>
-      <x:c r="CC40" s="101"/>
-      <x:c r="CD40" s="101"/>
-      <x:c r="CE40" s="12"/>
+      <x:c r="A40" s="8"/>
+      <x:c r="B40" s="8"/>
+      <x:c r="C40" s="8"/>
+      <x:c r="D40" s="8"/>
+      <x:c r="E40" s="8"/>
+      <x:c r="F40" s="8"/>
+      <x:c r="G40" s="8"/>
+      <x:c r="H40" s="8"/>
+      <x:c r="I40" s="8"/>
+      <x:c r="J40" s="8"/>
+      <x:c r="K40" s="8"/>
+      <x:c r="L40" s="8"/>
+      <x:c r="M40" s="8"/>
+      <x:c r="N40" s="8"/>
+      <x:c r="O40" s="8"/>
+      <x:c r="P40" s="8"/>
+      <x:c r="Q40" s="8"/>
+      <x:c r="R40" s="8"/>
+      <x:c r="S40" s="8"/>
+      <x:c r="T40" s="8"/>
+      <x:c r="U40" s="8"/>
+      <x:c r="V40" s="8"/>
+      <x:c r="W40" s="8"/>
+      <x:c r="X40" s="8"/>
+      <x:c r="Y40" s="8"/>
+      <x:c r="Z40" s="8"/>
+      <x:c r="AA40" s="8"/>
+      <x:c r="AB40" s="8"/>
+      <x:c r="AC40" s="8"/>
+      <x:c r="AD40" s="8"/>
+      <x:c r="AE40" s="8"/>
+      <x:c r="AF40" s="8"/>
+      <x:c r="AG40" s="8"/>
+      <x:c r="AH40" s="8"/>
+      <x:c r="AI40" s="8"/>
+      <x:c r="AJ40" s="8"/>
+      <x:c r="AK40" s="8"/>
+      <x:c r="AL40" s="8"/>
+      <x:c r="AM40" s="8"/>
+      <x:c r="AN40" s="16" t="s">
+        <x:v>98</x:v>
+      </x:c>
+      <x:c r="AO40" s="16"/>
+      <x:c r="AP40" s="96"/>
+      <x:c r="AQ40" s="2"/>
+      <x:c r="AR40" s="8"/>
+      <x:c r="AS40" s="8"/>
+      <x:c r="AT40" s="8"/>
+      <x:c r="AU40" s="8"/>
+      <x:c r="AV40" s="8"/>
+      <x:c r="AW40" s="8"/>
+      <x:c r="AX40" s="8"/>
+      <x:c r="AY40" s="8"/>
+      <x:c r="AZ40" s="8"/>
+      <x:c r="BA40" s="8"/>
+      <x:c r="BB40" s="8"/>
+      <x:c r="BC40" s="8"/>
+      <x:c r="BD40" s="8"/>
+      <x:c r="BE40" s="8"/>
+      <x:c r="BF40" s="8"/>
+      <x:c r="BG40" s="8"/>
+      <x:c r="BH40" s="8"/>
+      <x:c r="BI40" s="8"/>
+      <x:c r="BJ40" s="8"/>
+      <x:c r="BK40" s="8"/>
+      <x:c r="BL40" s="8"/>
+      <x:c r="BM40" s="8"/>
+      <x:c r="BN40" s="8"/>
+      <x:c r="BO40" s="8"/>
+      <x:c r="BP40" s="8"/>
+      <x:c r="BQ40" s="8"/>
+      <x:c r="BR40" s="8"/>
+      <x:c r="BS40" s="8"/>
+      <x:c r="BT40" s="8"/>
+      <x:c r="BU40" s="8"/>
+      <x:c r="BV40" s="8"/>
+      <x:c r="BW40" s="8"/>
+      <x:c r="BX40" s="8"/>
+      <x:c r="BY40" s="8"/>
+      <x:c r="BZ40" s="8"/>
+      <x:c r="CA40" s="8"/>
+      <x:c r="CB40" s="8"/>
+      <x:c r="CC40" s="8"/>
+      <x:c r="CD40" s="8"/>
+      <x:c r="CE40" s="12" t="s">
+        <x:v>99</x:v>
+      </x:c>
       <x:c r="CF40" s="12"/>
       <x:c r="CG40" s="12"/>
     </x:row>
     <x:row r="41" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A41" s="1" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="AN41" s="16"/>
-      <x:c r="AO41" s="16"/>
-      <x:c r="AP41" s="96"/>
-      <x:c r="AQ41" s="2"/>
-      <x:c r="AR41" s="1" t="s">
-        <x:v>102</x:v>
-      </x:c>
+      <x:c r="A41" s="101" t="s">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B41" s="101"/>
+      <x:c r="C41" s="101"/>
+      <x:c r="D41" s="101"/>
+      <x:c r="E41" s="101"/>
+      <x:c r="F41" s="101"/>
+      <x:c r="G41" s="101"/>
+      <x:c r="H41" s="101"/>
+      <x:c r="I41" s="101"/>
+      <x:c r="J41" s="101"/>
+      <x:c r="K41" s="101"/>
+      <x:c r="L41" s="101"/>
+      <x:c r="M41" s="101"/>
+      <x:c r="N41" s="101"/>
+      <x:c r="O41" s="101"/>
+      <x:c r="P41" s="101"/>
+      <x:c r="Q41" s="101"/>
+      <x:c r="R41" s="101"/>
+      <x:c r="S41" s="101"/>
+      <x:c r="T41" s="101"/>
+      <x:c r="U41" s="101"/>
+      <x:c r="V41" s="101"/>
+      <x:c r="W41" s="101"/>
+      <x:c r="X41" s="101"/>
+      <x:c r="Y41" s="101"/>
+      <x:c r="Z41" s="101"/>
+      <x:c r="AA41" s="101"/>
+      <x:c r="AB41" s="101"/>
+      <x:c r="AC41" s="101"/>
+      <x:c r="AD41" s="101"/>
+      <x:c r="AE41" s="101"/>
+      <x:c r="AF41" s="101"/>
+      <x:c r="AG41" s="101"/>
+      <x:c r="AH41" s="101"/>
+      <x:c r="AI41" s="101"/>
+      <x:c r="AJ41" s="101"/>
+      <x:c r="AK41" s="101"/>
+      <x:c r="AL41" s="101"/>
+      <x:c r="AM41" s="101"/>
+      <x:c r="AN41" s="99"/>
+      <x:c r="AO41" s="99"/>
+      <x:c r="AP41" s="100"/>
+      <x:c r="AQ41" s="18"/>
+      <x:c r="AR41" s="101" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="AS41" s="101"/>
+      <x:c r="AT41" s="101"/>
+      <x:c r="AU41" s="101"/>
+      <x:c r="AV41" s="101"/>
+      <x:c r="AW41" s="101"/>
+      <x:c r="AX41" s="101"/>
+      <x:c r="AY41" s="101"/>
+      <x:c r="AZ41" s="101"/>
+      <x:c r="BA41" s="101"/>
+      <x:c r="BB41" s="101"/>
+      <x:c r="BC41" s="101"/>
+      <x:c r="BD41" s="101"/>
+      <x:c r="BE41" s="101"/>
+      <x:c r="BF41" s="101"/>
+      <x:c r="BG41" s="101"/>
+      <x:c r="BH41" s="101"/>
+      <x:c r="BI41" s="101"/>
+      <x:c r="BJ41" s="101"/>
+      <x:c r="BK41" s="101"/>
+      <x:c r="BL41" s="101"/>
+      <x:c r="BM41" s="101"/>
+      <x:c r="BN41" s="101"/>
+      <x:c r="BO41" s="101"/>
+      <x:c r="BP41" s="101"/>
+      <x:c r="BQ41" s="101"/>
+      <x:c r="BR41" s="101"/>
+      <x:c r="BS41" s="101"/>
+      <x:c r="BT41" s="101"/>
+      <x:c r="BU41" s="101"/>
+      <x:c r="BV41" s="101"/>
+      <x:c r="BW41" s="101"/>
+      <x:c r="BX41" s="101"/>
+      <x:c r="BY41" s="101"/>
+      <x:c r="BZ41" s="101"/>
+      <x:c r="CA41" s="101"/>
+      <x:c r="CB41" s="101"/>
+      <x:c r="CC41" s="101"/>
+      <x:c r="CD41" s="101"/>
       <x:c r="CE41" s="12"/>
       <x:c r="CF41" s="12"/>
       <x:c r="CG41" s="12"/>
     </x:row>
     <x:row r="42" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A42" s="8"/>
-      <x:c r="B42" s="8"/>
-      <x:c r="C42" s="8"/>
-      <x:c r="D42" s="8"/>
-      <x:c r="E42" s="8"/>
-      <x:c r="F42" s="8"/>
-      <x:c r="G42" s="8"/>
-      <x:c r="H42" s="8"/>
-      <x:c r="I42" s="8"/>
-      <x:c r="J42" s="8"/>
-      <x:c r="K42" s="8"/>
-      <x:c r="L42" s="8"/>
-      <x:c r="M42" s="8"/>
-      <x:c r="N42" s="16"/>
-      <x:c r="O42" s="8"/>
-      <x:c r="P42" s="8"/>
-      <x:c r="Q42" s="8"/>
-      <x:c r="R42" s="8"/>
-      <x:c r="S42" s="8"/>
-      <x:c r="T42" s="8"/>
-      <x:c r="U42" s="8"/>
-      <x:c r="V42" s="8"/>
-      <x:c r="W42" s="8"/>
-      <x:c r="X42" s="8"/>
-      <x:c r="Y42" s="16"/>
-      <x:c r="Z42" s="8"/>
-      <x:c r="AA42" s="8"/>
-      <x:c r="AB42" s="8"/>
-      <x:c r="AC42" s="8"/>
-      <x:c r="AD42" s="8"/>
-      <x:c r="AE42" s="8"/>
-      <x:c r="AF42" s="8"/>
-      <x:c r="AG42" s="8"/>
-      <x:c r="AH42" s="8"/>
-      <x:c r="AI42" s="8"/>
-      <x:c r="AJ42" s="8"/>
-      <x:c r="AK42" s="8"/>
-      <x:c r="AL42" s="8"/>
-      <x:c r="AM42" s="8"/>
-      <x:c r="AN42" s="16" t="s">
-        <x:v>103</x:v>
-      </x:c>
+      <x:c r="A42" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="AN42" s="16"/>
       <x:c r="AO42" s="16"/>
       <x:c r="AP42" s="96"/>
       <x:c r="AQ42" s="2"/>
-      <x:c r="AR42" s="8"/>
-      <x:c r="AS42" s="8"/>
-      <x:c r="AT42" s="8"/>
-      <x:c r="AU42" s="8"/>
-      <x:c r="AV42" s="8"/>
-      <x:c r="AW42" s="8"/>
-      <x:c r="AX42" s="8"/>
-      <x:c r="AY42" s="8"/>
-      <x:c r="AZ42" s="8"/>
-      <x:c r="BA42" s="8"/>
-      <x:c r="BB42" s="8"/>
-      <x:c r="BC42" s="8"/>
-      <x:c r="BD42" s="8"/>
-      <x:c r="BE42" s="16"/>
-      <x:c r="BF42" s="8"/>
-      <x:c r="BG42" s="8"/>
-      <x:c r="BH42" s="8"/>
-      <x:c r="BI42" s="8"/>
-      <x:c r="BJ42" s="8"/>
-      <x:c r="BK42" s="8"/>
-      <x:c r="BL42" s="8"/>
-      <x:c r="BM42" s="8"/>
-      <x:c r="BN42" s="8"/>
-      <x:c r="BO42" s="8"/>
-      <x:c r="BP42" s="16"/>
-      <x:c r="BQ42" s="3"/>
-      <x:c r="BR42" s="8"/>
-      <x:c r="BS42" s="8"/>
-      <x:c r="BT42" s="8"/>
-      <x:c r="BU42" s="8"/>
-      <x:c r="BV42" s="8"/>
-      <x:c r="BW42" s="8"/>
-      <x:c r="BX42" s="8"/>
-      <x:c r="BY42" s="8"/>
-      <x:c r="BZ42" s="8"/>
-      <x:c r="CA42" s="8"/>
-      <x:c r="CB42" s="8"/>
-      <x:c r="CC42" s="8"/>
-      <x:c r="CD42" s="8"/>
-      <x:c r="CE42" s="12" t="s">
-        <x:v>104</x:v>
-      </x:c>
+      <x:c r="AR42" s="1" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="CE42" s="12"/>
       <x:c r="CF42" s="12"/>
       <x:c r="CG42" s="12"/>
     </x:row>
     <x:row r="43" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A43" s="17" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="B43" s="17"/>
-      <x:c r="C43" s="17"/>
-      <x:c r="D43" s="17"/>
-      <x:c r="E43" s="17"/>
-      <x:c r="F43" s="17"/>
-      <x:c r="G43" s="17"/>
-      <x:c r="H43" s="17"/>
-      <x:c r="I43" s="17"/>
-      <x:c r="J43" s="17"/>
-      <x:c r="K43" s="17"/>
-      <x:c r="L43" s="17"/>
-      <x:c r="M43" s="17"/>
-      <x:c r="N43" s="17"/>
-      <x:c r="O43" s="17" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="P43" s="17"/>
-      <x:c r="Q43" s="17"/>
-      <x:c r="R43" s="17"/>
-      <x:c r="S43" s="17"/>
-      <x:c r="T43" s="17"/>
-      <x:c r="U43" s="17"/>
-      <x:c r="V43" s="17"/>
-      <x:c r="W43" s="17"/>
-      <x:c r="X43" s="17"/>
-      <x:c r="Y43" s="17"/>
-      <x:c r="Z43" s="17" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="AA43" s="17"/>
-      <x:c r="AB43" s="17"/>
-      <x:c r="AC43" s="17"/>
-      <x:c r="AD43" s="17"/>
-      <x:c r="AE43" s="17"/>
-      <x:c r="AF43" s="17"/>
-      <x:c r="AG43" s="17"/>
-      <x:c r="AH43" s="17"/>
-      <x:c r="AI43" s="17"/>
-      <x:c r="AJ43" s="17"/>
-      <x:c r="AK43" s="17"/>
-      <x:c r="AL43" s="17"/>
-      <x:c r="AM43" s="17"/>
-      <x:c r="AN43" s="99"/>
-      <x:c r="AO43" s="99"/>
-      <x:c r="AP43" s="100"/>
-      <x:c r="AQ43" s="18"/>
-      <x:c r="AR43" s="17" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="AS43" s="17"/>
-      <x:c r="AT43" s="17"/>
-      <x:c r="AU43" s="17"/>
-      <x:c r="AV43" s="17"/>
-      <x:c r="AW43" s="17"/>
-      <x:c r="AX43" s="17"/>
-      <x:c r="AY43" s="17"/>
-      <x:c r="AZ43" s="17"/>
-      <x:c r="BA43" s="17"/>
-      <x:c r="BB43" s="17"/>
-      <x:c r="BC43" s="17"/>
-      <x:c r="BD43" s="17"/>
-      <x:c r="BE43" s="17"/>
-      <x:c r="BF43" s="17" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="BG43" s="17"/>
-      <x:c r="BH43" s="17"/>
-      <x:c r="BI43" s="17"/>
-      <x:c r="BJ43" s="17"/>
-      <x:c r="BK43" s="17"/>
-      <x:c r="BL43" s="17"/>
-      <x:c r="BM43" s="17"/>
-      <x:c r="BN43" s="17"/>
-      <x:c r="BO43" s="17"/>
-      <x:c r="BP43" s="17"/>
-      <x:c r="BQ43" s="17" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="BR43" s="17"/>
-      <x:c r="BS43" s="17"/>
-      <x:c r="BT43" s="17"/>
-      <x:c r="BU43" s="17"/>
-      <x:c r="BV43" s="17"/>
-      <x:c r="BW43" s="17"/>
-      <x:c r="BX43" s="17"/>
-      <x:c r="BY43" s="17"/>
-      <x:c r="BZ43" s="17"/>
-      <x:c r="CA43" s="17"/>
-      <x:c r="CB43" s="17"/>
-      <x:c r="CC43" s="17"/>
-      <x:c r="CD43" s="17"/>
-      <x:c r="CE43" s="16"/>
-      <x:c r="CF43" s="16"/>
-      <x:c r="CG43" s="16"/>
+      <x:c r="A43" s="8"/>
+      <x:c r="B43" s="8"/>
+      <x:c r="C43" s="8"/>
+      <x:c r="D43" s="8"/>
+      <x:c r="E43" s="8"/>
+      <x:c r="F43" s="8"/>
+      <x:c r="G43" s="8"/>
+      <x:c r="H43" s="8"/>
+      <x:c r="I43" s="8"/>
+      <x:c r="J43" s="8"/>
+      <x:c r="K43" s="8"/>
+      <x:c r="L43" s="8"/>
+      <x:c r="M43" s="8"/>
+      <x:c r="N43" s="16"/>
+      <x:c r="O43" s="8"/>
+      <x:c r="P43" s="8"/>
+      <x:c r="Q43" s="8"/>
+      <x:c r="R43" s="8"/>
+      <x:c r="S43" s="8"/>
+      <x:c r="T43" s="8"/>
+      <x:c r="U43" s="8"/>
+      <x:c r="V43" s="8"/>
+      <x:c r="W43" s="8"/>
+      <x:c r="X43" s="8"/>
+      <x:c r="Y43" s="16"/>
+      <x:c r="Z43" s="8"/>
+      <x:c r="AA43" s="8"/>
+      <x:c r="AB43" s="8"/>
+      <x:c r="AC43" s="8"/>
+      <x:c r="AD43" s="8"/>
+      <x:c r="AE43" s="8"/>
+      <x:c r="AF43" s="8"/>
+      <x:c r="AG43" s="8"/>
+      <x:c r="AH43" s="8"/>
+      <x:c r="AI43" s="8"/>
+      <x:c r="AJ43" s="8"/>
+      <x:c r="AK43" s="8"/>
+      <x:c r="AL43" s="8"/>
+      <x:c r="AM43" s="8"/>
+      <x:c r="AN43" s="16" t="s">
+        <x:v>103</x:v>
+      </x:c>
+      <x:c r="AO43" s="16"/>
+      <x:c r="AP43" s="96"/>
+      <x:c r="AQ43" s="2"/>
+      <x:c r="AR43" s="8"/>
+      <x:c r="AS43" s="8"/>
+      <x:c r="AT43" s="8"/>
+      <x:c r="AU43" s="8"/>
+      <x:c r="AV43" s="8"/>
+      <x:c r="AW43" s="8"/>
+      <x:c r="AX43" s="8"/>
+      <x:c r="AY43" s="8"/>
+      <x:c r="AZ43" s="8"/>
+      <x:c r="BA43" s="8"/>
+      <x:c r="BB43" s="8"/>
+      <x:c r="BC43" s="8"/>
+      <x:c r="BD43" s="8"/>
+      <x:c r="BE43" s="16"/>
+      <x:c r="BF43" s="8"/>
+      <x:c r="BG43" s="8"/>
+      <x:c r="BH43" s="8"/>
+      <x:c r="BI43" s="8"/>
+      <x:c r="BJ43" s="8"/>
+      <x:c r="BK43" s="8"/>
+      <x:c r="BL43" s="8"/>
+      <x:c r="BM43" s="8"/>
+      <x:c r="BN43" s="8"/>
+      <x:c r="BO43" s="8"/>
+      <x:c r="BP43" s="16"/>
+      <x:c r="BQ43" s="3"/>
+      <x:c r="BR43" s="8"/>
+      <x:c r="BS43" s="8"/>
+      <x:c r="BT43" s="8"/>
+      <x:c r="BU43" s="8"/>
+      <x:c r="BV43" s="8"/>
+      <x:c r="BW43" s="8"/>
+      <x:c r="BX43" s="8"/>
+      <x:c r="BY43" s="8"/>
+      <x:c r="BZ43" s="8"/>
+      <x:c r="CA43" s="8"/>
+      <x:c r="CB43" s="8"/>
+      <x:c r="CC43" s="8"/>
+      <x:c r="CD43" s="8"/>
+      <x:c r="CE43" s="12" t="s">
+        <x:v>104</x:v>
+      </x:c>
+      <x:c r="CF43" s="12"/>
+      <x:c r="CG43" s="12"/>
     </x:row>
     <x:row r="44" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A44" s="102" t="s">
-        <x:v>105</x:v>
-      </x:c>
-      <x:c r="B44" s="102"/>
-      <x:c r="C44" s="102"/>
-      <x:c r="D44" s="102"/>
-      <x:c r="E44" s="102"/>
-      <x:c r="F44" s="102"/>
-      <x:c r="G44" s="102"/>
-      <x:c r="H44" s="102"/>
-      <x:c r="I44" s="102"/>
-      <x:c r="J44" s="102"/>
-      <x:c r="K44" s="102"/>
-      <x:c r="L44" s="102"/>
-      <x:c r="M44" s="102"/>
-      <x:c r="N44" s="102"/>
-      <x:c r="O44" s="102"/>
-      <x:c r="P44" s="102"/>
-      <x:c r="Q44" s="102"/>
-      <x:c r="R44" s="102"/>
-      <x:c r="S44" s="102"/>
-      <x:c r="T44" s="102"/>
-      <x:c r="U44" s="102"/>
-      <x:c r="V44" s="102"/>
-      <x:c r="W44" s="102"/>
-      <x:c r="X44" s="102"/>
-      <x:c r="Y44" s="102"/>
-      <x:c r="Z44" s="102"/>
-      <x:c r="AA44" s="102"/>
-      <x:c r="AB44" s="102"/>
-      <x:c r="AC44" s="102"/>
-      <x:c r="AD44" s="102"/>
-      <x:c r="AE44" s="102"/>
-      <x:c r="AF44" s="102"/>
-      <x:c r="AG44" s="102"/>
-      <x:c r="AH44" s="102"/>
-      <x:c r="AI44" s="102"/>
-      <x:c r="AJ44" s="102"/>
-      <x:c r="AK44" s="102"/>
-      <x:c r="AL44" s="102"/>
-      <x:c r="AM44" s="102"/>
-      <x:c r="AN44" s="16"/>
-      <x:c r="AO44" s="16"/>
-      <x:c r="AP44" s="96"/>
-      <x:c r="AQ44" s="2"/>
-      <x:c r="AR44" s="1" t="s">
-        <x:v>106</x:v>
-      </x:c>
+      <x:c r="A44" s="17" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="B44" s="17"/>
+      <x:c r="C44" s="17"/>
+      <x:c r="D44" s="17"/>
+      <x:c r="E44" s="17"/>
+      <x:c r="F44" s="17"/>
+      <x:c r="G44" s="17"/>
+      <x:c r="H44" s="17"/>
+      <x:c r="I44" s="17"/>
+      <x:c r="J44" s="17"/>
+      <x:c r="K44" s="17"/>
+      <x:c r="L44" s="17"/>
+      <x:c r="M44" s="17"/>
+      <x:c r="N44" s="17"/>
+      <x:c r="O44" s="17" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="P44" s="17"/>
+      <x:c r="Q44" s="17"/>
+      <x:c r="R44" s="17"/>
+      <x:c r="S44" s="17"/>
+      <x:c r="T44" s="17"/>
+      <x:c r="U44" s="17"/>
+      <x:c r="V44" s="17"/>
+      <x:c r="W44" s="17"/>
+      <x:c r="X44" s="17"/>
+      <x:c r="Y44" s="17"/>
+      <x:c r="Z44" s="17" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="AA44" s="17"/>
+      <x:c r="AB44" s="17"/>
+      <x:c r="AC44" s="17"/>
+      <x:c r="AD44" s="17"/>
+      <x:c r="AE44" s="17"/>
+      <x:c r="AF44" s="17"/>
+      <x:c r="AG44" s="17"/>
+      <x:c r="AH44" s="17"/>
+      <x:c r="AI44" s="17"/>
+      <x:c r="AJ44" s="17"/>
+      <x:c r="AK44" s="17"/>
+      <x:c r="AL44" s="17"/>
+      <x:c r="AM44" s="17"/>
+      <x:c r="AN44" s="99"/>
+      <x:c r="AO44" s="99"/>
+      <x:c r="AP44" s="100"/>
+      <x:c r="AQ44" s="18"/>
+      <x:c r="AR44" s="17" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="AS44" s="17"/>
+      <x:c r="AT44" s="17"/>
+      <x:c r="AU44" s="17"/>
+      <x:c r="AV44" s="17"/>
+      <x:c r="AW44" s="17"/>
+      <x:c r="AX44" s="17"/>
+      <x:c r="AY44" s="17"/>
+      <x:c r="AZ44" s="17"/>
+      <x:c r="BA44" s="17"/>
+      <x:c r="BB44" s="17"/>
+      <x:c r="BC44" s="17"/>
+      <x:c r="BD44" s="17"/>
+      <x:c r="BE44" s="17"/>
+      <x:c r="BF44" s="17" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="BG44" s="17"/>
+      <x:c r="BH44" s="17"/>
+      <x:c r="BI44" s="17"/>
+      <x:c r="BJ44" s="17"/>
+      <x:c r="BK44" s="17"/>
+      <x:c r="BL44" s="17"/>
+      <x:c r="BM44" s="17"/>
+      <x:c r="BN44" s="17"/>
+      <x:c r="BO44" s="17"/>
+      <x:c r="BP44" s="17"/>
+      <x:c r="BQ44" s="17" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="BR44" s="17"/>
+      <x:c r="BS44" s="17"/>
+      <x:c r="BT44" s="17"/>
+      <x:c r="BU44" s="17"/>
+      <x:c r="BV44" s="17"/>
+      <x:c r="BW44" s="17"/>
+      <x:c r="BX44" s="17"/>
+      <x:c r="BY44" s="17"/>
+      <x:c r="BZ44" s="17"/>
+      <x:c r="CA44" s="17"/>
+      <x:c r="CB44" s="17"/>
+      <x:c r="CC44" s="17"/>
+      <x:c r="CD44" s="17"/>
       <x:c r="CE44" s="16"/>
       <x:c r="CF44" s="16"/>
       <x:c r="CG44" s="16"/>
     </x:row>
     <x:row r="45" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A45" s="9"/>
-      <x:c r="B45" s="9"/>
-      <x:c r="C45" s="9"/>
-      <x:c r="D45" s="9"/>
-      <x:c r="E45" s="9"/>
-      <x:c r="F45" s="9"/>
-      <x:c r="G45" s="9"/>
-      <x:c r="H45" s="9"/>
-      <x:c r="I45" s="9"/>
-      <x:c r="J45" s="9"/>
-      <x:c r="K45" s="9"/>
-      <x:c r="L45" s="9"/>
-      <x:c r="M45" s="9"/>
-      <x:c r="N45" s="9"/>
-      <x:c r="O45" s="9"/>
-      <x:c r="P45" s="9"/>
-      <x:c r="Q45" s="9"/>
-      <x:c r="R45" s="9"/>
-      <x:c r="S45" s="9"/>
-      <x:c r="T45" s="9"/>
-      <x:c r="U45" s="9"/>
-      <x:c r="V45" s="9"/>
-      <x:c r="W45" s="9"/>
-      <x:c r="X45" s="9"/>
-      <x:c r="Y45" s="9"/>
-      <x:c r="Z45" s="9"/>
-      <x:c r="AA45" s="9"/>
-      <x:c r="AB45" s="9"/>
-      <x:c r="AC45" s="9"/>
-      <x:c r="AD45" s="9"/>
-      <x:c r="AE45" s="9"/>
-      <x:c r="AF45" s="9"/>
-      <x:c r="AG45" s="9"/>
-      <x:c r="AH45" s="9"/>
-      <x:c r="AI45" s="9"/>
-      <x:c r="AJ45" s="9"/>
-      <x:c r="AK45" s="9"/>
-      <x:c r="AL45" s="9"/>
-      <x:c r="AM45" s="9"/>
-      <x:c r="AN45" s="16" t="s">
-        <x:v>107</x:v>
-      </x:c>
+      <x:c r="A45" s="102" t="s">
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B45" s="102"/>
+      <x:c r="C45" s="102"/>
+      <x:c r="D45" s="102"/>
+      <x:c r="E45" s="102"/>
+      <x:c r="F45" s="102"/>
+      <x:c r="G45" s="102"/>
+      <x:c r="H45" s="102"/>
+      <x:c r="I45" s="102"/>
+      <x:c r="J45" s="102"/>
+      <x:c r="K45" s="102"/>
+      <x:c r="L45" s="102"/>
+      <x:c r="M45" s="102"/>
+      <x:c r="N45" s="102"/>
+      <x:c r="O45" s="102"/>
+      <x:c r="P45" s="102"/>
+      <x:c r="Q45" s="102"/>
+      <x:c r="R45" s="102"/>
+      <x:c r="S45" s="102"/>
+      <x:c r="T45" s="102"/>
+      <x:c r="U45" s="102"/>
+      <x:c r="V45" s="102"/>
+      <x:c r="W45" s="102"/>
+      <x:c r="X45" s="102"/>
+      <x:c r="Y45" s="102"/>
+      <x:c r="Z45" s="102"/>
+      <x:c r="AA45" s="102"/>
+      <x:c r="AB45" s="102"/>
+      <x:c r="AC45" s="102"/>
+      <x:c r="AD45" s="102"/>
+      <x:c r="AE45" s="102"/>
+      <x:c r="AF45" s="102"/>
+      <x:c r="AG45" s="102"/>
+      <x:c r="AH45" s="102"/>
+      <x:c r="AI45" s="102"/>
+      <x:c r="AJ45" s="102"/>
+      <x:c r="AK45" s="102"/>
+      <x:c r="AL45" s="102"/>
+      <x:c r="AM45" s="102"/>
+      <x:c r="AN45" s="16"/>
       <x:c r="AO45" s="16"/>
       <x:c r="AP45" s="96"/>
       <x:c r="AQ45" s="2"/>
-      <x:c r="AR45" s="9"/>
-      <x:c r="AS45" s="9"/>
-      <x:c r="AT45" s="9"/>
-      <x:c r="AU45" s="9"/>
-      <x:c r="AV45" s="9"/>
-      <x:c r="AW45" s="9"/>
-      <x:c r="AX45" s="9"/>
-      <x:c r="AY45" s="9"/>
-      <x:c r="AZ45" s="9"/>
-      <x:c r="BA45" s="9"/>
-      <x:c r="BB45" s="9"/>
-      <x:c r="BC45" s="9"/>
-      <x:c r="BD45" s="9"/>
-      <x:c r="BE45" s="9"/>
-      <x:c r="BF45" s="9"/>
-      <x:c r="BG45" s="9"/>
-      <x:c r="BH45" s="9"/>
-      <x:c r="BI45" s="9"/>
-      <x:c r="BJ45" s="9"/>
-      <x:c r="BK45" s="9"/>
-      <x:c r="BL45" s="9"/>
-      <x:c r="BM45" s="9"/>
-      <x:c r="BN45" s="9"/>
-      <x:c r="BO45" s="9"/>
-      <x:c r="BP45" s="9"/>
-      <x:c r="BQ45" s="9"/>
-      <x:c r="BR45" s="9"/>
-      <x:c r="BS45" s="9"/>
-      <x:c r="BT45" s="9"/>
-      <x:c r="BU45" s="9"/>
-      <x:c r="BV45" s="9"/>
-      <x:c r="BW45" s="9"/>
-      <x:c r="BX45" s="9"/>
-      <x:c r="BY45" s="9"/>
-      <x:c r="BZ45" s="9"/>
-      <x:c r="CA45" s="9"/>
-      <x:c r="CB45" s="9"/>
-      <x:c r="CC45" s="9"/>
-      <x:c r="CD45" s="9"/>
-      <x:c r="CE45" s="16" t="s">
-        <x:v>108</x:v>
-      </x:c>
+      <x:c r="AR45" s="1" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="CE45" s="16"/>
       <x:c r="CF45" s="16"/>
       <x:c r="CG45" s="16"/>
     </x:row>
     <x:row r="46" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A46" s="101" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="B46" s="101"/>
-      <x:c r="C46" s="101"/>
-      <x:c r="D46" s="101"/>
-      <x:c r="E46" s="101"/>
-      <x:c r="F46" s="101"/>
-      <x:c r="G46" s="101"/>
-      <x:c r="H46" s="101"/>
-      <x:c r="I46" s="101"/>
-      <x:c r="J46" s="101"/>
-      <x:c r="K46" s="101"/>
-      <x:c r="L46" s="101"/>
-      <x:c r="M46" s="101"/>
-      <x:c r="N46" s="101"/>
-      <x:c r="O46" s="101"/>
-      <x:c r="P46" s="101"/>
-      <x:c r="Q46" s="101"/>
-      <x:c r="R46" s="101"/>
-      <x:c r="S46" s="101"/>
-      <x:c r="T46" s="101"/>
-      <x:c r="U46" s="101"/>
-      <x:c r="V46" s="101"/>
-      <x:c r="W46" s="101"/>
-      <x:c r="X46" s="101"/>
-      <x:c r="Y46" s="101"/>
-      <x:c r="Z46" s="101"/>
-      <x:c r="AA46" s="101"/>
-      <x:c r="AB46" s="101"/>
-      <x:c r="AC46" s="101"/>
-      <x:c r="AD46" s="101"/>
-      <x:c r="AE46" s="101"/>
-      <x:c r="AF46" s="101"/>
-      <x:c r="AG46" s="101"/>
-      <x:c r="AH46" s="101"/>
-      <x:c r="AI46" s="101"/>
-      <x:c r="AJ46" s="101"/>
-      <x:c r="AK46" s="101"/>
-      <x:c r="AL46" s="101"/>
-      <x:c r="AM46" s="101"/>
-      <x:c r="AN46" s="99"/>
-      <x:c r="AO46" s="99"/>
-      <x:c r="AP46" s="100"/>
-      <x:c r="AQ46" s="18"/>
-      <x:c r="AR46" s="101" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="AS46" s="101"/>
-      <x:c r="AT46" s="101"/>
-      <x:c r="AU46" s="101"/>
-      <x:c r="AV46" s="101"/>
-      <x:c r="AW46" s="101"/>
-      <x:c r="AX46" s="101"/>
-      <x:c r="AY46" s="101"/>
-      <x:c r="AZ46" s="101"/>
-      <x:c r="BA46" s="101"/>
-      <x:c r="BB46" s="101"/>
-      <x:c r="BC46" s="101"/>
-      <x:c r="BD46" s="101"/>
-      <x:c r="BE46" s="101"/>
-      <x:c r="BF46" s="101"/>
-      <x:c r="BG46" s="101"/>
-      <x:c r="BH46" s="101"/>
-      <x:c r="BI46" s="101"/>
-      <x:c r="BJ46" s="101"/>
-      <x:c r="BK46" s="101"/>
-      <x:c r="BL46" s="101"/>
-      <x:c r="BM46" s="101"/>
-      <x:c r="BN46" s="101"/>
-      <x:c r="BO46" s="101"/>
-      <x:c r="BP46" s="101"/>
-      <x:c r="BQ46" s="101"/>
-      <x:c r="BR46" s="101"/>
-      <x:c r="BS46" s="101"/>
-      <x:c r="BT46" s="101"/>
-      <x:c r="BU46" s="101"/>
-      <x:c r="BV46" s="101"/>
-      <x:c r="BW46" s="101"/>
-      <x:c r="BX46" s="101"/>
-      <x:c r="BY46" s="101"/>
-      <x:c r="BZ46" s="101"/>
-      <x:c r="CA46" s="101"/>
-      <x:c r="CB46" s="101"/>
-      <x:c r="CC46" s="101"/>
-      <x:c r="CD46" s="101"/>
-      <x:c r="CE46" s="16"/>
+      <x:c r="A46" s="9"/>
+      <x:c r="B46" s="9"/>
+      <x:c r="C46" s="9"/>
+      <x:c r="D46" s="9"/>
+      <x:c r="E46" s="9"/>
+      <x:c r="F46" s="9"/>
+      <x:c r="G46" s="9"/>
+      <x:c r="H46" s="9"/>
+      <x:c r="I46" s="9"/>
+      <x:c r="J46" s="9"/>
+      <x:c r="K46" s="9"/>
+      <x:c r="L46" s="9"/>
+      <x:c r="M46" s="9"/>
+      <x:c r="N46" s="9"/>
+      <x:c r="O46" s="9"/>
+      <x:c r="P46" s="9"/>
+      <x:c r="Q46" s="9"/>
+      <x:c r="R46" s="9"/>
+      <x:c r="S46" s="9"/>
+      <x:c r="T46" s="9"/>
+      <x:c r="U46" s="9"/>
+      <x:c r="V46" s="9"/>
+      <x:c r="W46" s="9"/>
+      <x:c r="X46" s="9"/>
+      <x:c r="Y46" s="9"/>
+      <x:c r="Z46" s="9"/>
+      <x:c r="AA46" s="9"/>
+      <x:c r="AB46" s="9"/>
+      <x:c r="AC46" s="9"/>
+      <x:c r="AD46" s="9"/>
+      <x:c r="AE46" s="9"/>
+      <x:c r="AF46" s="9"/>
+      <x:c r="AG46" s="9"/>
+      <x:c r="AH46" s="9"/>
+      <x:c r="AI46" s="9"/>
+      <x:c r="AJ46" s="9"/>
+      <x:c r="AK46" s="9"/>
+      <x:c r="AL46" s="9"/>
+      <x:c r="AM46" s="9"/>
+      <x:c r="AN46" s="16" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="AO46" s="16"/>
+      <x:c r="AP46" s="96"/>
+      <x:c r="AQ46" s="2"/>
+      <x:c r="AR46" s="9"/>
+      <x:c r="AS46" s="9"/>
+      <x:c r="AT46" s="9"/>
+      <x:c r="AU46" s="9"/>
+      <x:c r="AV46" s="9"/>
+      <x:c r="AW46" s="9"/>
+      <x:c r="AX46" s="9"/>
+      <x:c r="AY46" s="9"/>
+      <x:c r="AZ46" s="9"/>
+      <x:c r="BA46" s="9"/>
+      <x:c r="BB46" s="9"/>
+      <x:c r="BC46" s="9"/>
+      <x:c r="BD46" s="9"/>
+      <x:c r="BE46" s="9"/>
+      <x:c r="BF46" s="9"/>
+      <x:c r="BG46" s="9"/>
+      <x:c r="BH46" s="9"/>
+      <x:c r="BI46" s="9"/>
+      <x:c r="BJ46" s="9"/>
+      <x:c r="BK46" s="9"/>
+      <x:c r="BL46" s="9"/>
+      <x:c r="BM46" s="9"/>
+      <x:c r="BN46" s="9"/>
+      <x:c r="BO46" s="9"/>
+      <x:c r="BP46" s="9"/>
+      <x:c r="BQ46" s="9"/>
+      <x:c r="BR46" s="9"/>
+      <x:c r="BS46" s="9"/>
+      <x:c r="BT46" s="9"/>
+      <x:c r="BU46" s="9"/>
+      <x:c r="BV46" s="9"/>
+      <x:c r="BW46" s="9"/>
+      <x:c r="BX46" s="9"/>
+      <x:c r="BY46" s="9"/>
+      <x:c r="BZ46" s="9"/>
+      <x:c r="CA46" s="9"/>
+      <x:c r="CB46" s="9"/>
+      <x:c r="CC46" s="9"/>
+      <x:c r="CD46" s="9"/>
+      <x:c r="CE46" s="16" t="s">
+        <x:v>108</x:v>
+      </x:c>
       <x:c r="CF46" s="16"/>
       <x:c r="CG46" s="16"/>
     </x:row>
     <x:row r="47" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <x:c r="A47" s="16" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="B47" s="16"/>
-      <x:c r="C47" s="16"/>
-      <x:c r="D47" s="16"/>
-      <x:c r="E47" s="16"/>
-      <x:c r="F47" s="16"/>
-      <x:c r="G47" s="16"/>
-      <x:c r="H47" s="16"/>
-      <x:c r="I47" s="16"/>
-      <x:c r="J47" s="16"/>
-      <x:c r="K47" s="16"/>
-      <x:c r="L47" s="16"/>
-      <x:c r="M47" s="16"/>
-      <x:c r="AN47" s="16"/>
-      <x:c r="AO47" s="16"/>
-      <x:c r="AP47" s="96"/>
-      <x:c r="AQ47" s="2"/>
-      <x:c r="AR47" s="16" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="AS47" s="16"/>
-      <x:c r="AT47" s="16"/>
-      <x:c r="AU47" s="16"/>
-      <x:c r="AV47" s="16"/>
-      <x:c r="AW47" s="16"/>
-      <x:c r="AX47" s="16"/>
-      <x:c r="AY47" s="16"/>
-      <x:c r="AZ47" s="16"/>
-      <x:c r="BA47" s="16"/>
-      <x:c r="BB47" s="16"/>
-      <x:c r="BC47" s="16"/>
-      <x:c r="BD47" s="16"/>
+      <x:c r="A47" s="101" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B47" s="101"/>
+      <x:c r="C47" s="101"/>
+      <x:c r="D47" s="101"/>
+      <x:c r="E47" s="101"/>
+      <x:c r="F47" s="101"/>
+      <x:c r="G47" s="101"/>
+      <x:c r="H47" s="101"/>
+      <x:c r="I47" s="101"/>
+      <x:c r="J47" s="101"/>
+      <x:c r="K47" s="101"/>
+      <x:c r="L47" s="101"/>
+      <x:c r="M47" s="101"/>
+      <x:c r="N47" s="101"/>
+      <x:c r="O47" s="101"/>
+      <x:c r="P47" s="101"/>
+      <x:c r="Q47" s="101"/>
+      <x:c r="R47" s="101"/>
+      <x:c r="S47" s="101"/>
+      <x:c r="T47" s="101"/>
+      <x:c r="U47" s="101"/>
+      <x:c r="V47" s="101"/>
+      <x:c r="W47" s="101"/>
+      <x:c r="X47" s="101"/>
+      <x:c r="Y47" s="101"/>
+      <x:c r="Z47" s="101"/>
+      <x:c r="AA47" s="101"/>
+      <x:c r="AB47" s="101"/>
+      <x:c r="AC47" s="101"/>
+      <x:c r="AD47" s="101"/>
+      <x:c r="AE47" s="101"/>
+      <x:c r="AF47" s="101"/>
+      <x:c r="AG47" s="101"/>
+      <x:c r="AH47" s="101"/>
+      <x:c r="AI47" s="101"/>
+      <x:c r="AJ47" s="101"/>
+      <x:c r="AK47" s="101"/>
+      <x:c r="AL47" s="101"/>
+      <x:c r="AM47" s="101"/>
+      <x:c r="AN47" s="99"/>
+      <x:c r="AO47" s="99"/>
+      <x:c r="AP47" s="100"/>
+      <x:c r="AQ47" s="18"/>
+      <x:c r="AR47" s="101" t="s">
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="AS47" s="101"/>
+      <x:c r="AT47" s="101"/>
+      <x:c r="AU47" s="101"/>
+      <x:c r="AV47" s="101"/>
+      <x:c r="AW47" s="101"/>
+      <x:c r="AX47" s="101"/>
+      <x:c r="AY47" s="101"/>
+      <x:c r="AZ47" s="101"/>
+      <x:c r="BA47" s="101"/>
+      <x:c r="BB47" s="101"/>
+      <x:c r="BC47" s="101"/>
+      <x:c r="BD47" s="101"/>
+      <x:c r="BE47" s="101"/>
+      <x:c r="BF47" s="101"/>
+      <x:c r="BG47" s="101"/>
+      <x:c r="BH47" s="101"/>
+      <x:c r="BI47" s="101"/>
+      <x:c r="BJ47" s="101"/>
+      <x:c r="BK47" s="101"/>
+      <x:c r="BL47" s="101"/>
+      <x:c r="BM47" s="101"/>
+      <x:c r="BN47" s="101"/>
+      <x:c r="BO47" s="101"/>
+      <x:c r="BP47" s="101"/>
+      <x:c r="BQ47" s="101"/>
+      <x:c r="BR47" s="101"/>
+      <x:c r="BS47" s="101"/>
+      <x:c r="BT47" s="101"/>
+      <x:c r="BU47" s="101"/>
+      <x:c r="BV47" s="101"/>
+      <x:c r="BW47" s="101"/>
+      <x:c r="BX47" s="101"/>
+      <x:c r="BY47" s="101"/>
+      <x:c r="BZ47" s="101"/>
+      <x:c r="CA47" s="101"/>
+      <x:c r="CB47" s="101"/>
+      <x:c r="CC47" s="101"/>
+      <x:c r="CD47" s="101"/>
       <x:c r="CE47" s="16"/>
       <x:c r="CF47" s="16"/>
       <x:c r="CG47" s="16"/>
     </x:row>
+    <x:row r="48" spans="1:87" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+      <x:c r="A48" s="16" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="B48" s="16"/>
+      <x:c r="C48" s="16"/>
+      <x:c r="D48" s="16"/>
+      <x:c r="E48" s="16"/>
+      <x:c r="F48" s="16"/>
+      <x:c r="G48" s="16"/>
+      <x:c r="H48" s="16"/>
+      <x:c r="I48" s="16"/>
+      <x:c r="J48" s="16"/>
+      <x:c r="K48" s="16"/>
+      <x:c r="L48" s="16"/>
+      <x:c r="M48" s="16"/>
+      <x:c r="AN48" s="16"/>
+      <x:c r="AO48" s="16"/>
+      <x:c r="AP48" s="96"/>
+      <x:c r="AQ48" s="2"/>
+      <x:c r="AR48" s="16" t="s">
+        <x:v>110</x:v>
+      </x:c>
+      <x:c r="AS48" s="16"/>
+      <x:c r="AT48" s="16"/>
+      <x:c r="AU48" s="16"/>
+      <x:c r="AV48" s="16"/>
+      <x:c r="AW48" s="16"/>
+      <x:c r="AX48" s="16"/>
+      <x:c r="AY48" s="16"/>
+      <x:c r="AZ48" s="16"/>
+      <x:c r="BA48" s="16"/>
+      <x:c r="BB48" s="16"/>
+      <x:c r="BC48" s="16"/>
+      <x:c r="BD48" s="16"/>
+      <x:c r="CE48" s="16"/>
+      <x:c r="CF48" s="16"/>
+      <x:c r="CG48" s="16"/>
+    </x:row>
   </x:sheetData>
-  <x:mergeCells count="258">
+  <x:mergeCells count="274">
     <x:mergeCell ref="A1:CG1"/>
     <x:mergeCell ref="A2:H5"/>
     <x:mergeCell ref="I2:Q2"/>
@@ -5569,89 +5687,101 @@
     <x:mergeCell ref="BS22:BY22"/>
     <x:mergeCell ref="BZ22:CE22"/>
     <x:mergeCell ref="A23:H23"/>
-    <x:mergeCell ref="I23:AN23"/>
-    <x:mergeCell ref="AO23:AU23"/>
-    <x:mergeCell ref="AV23:BC23"/>
-    <x:mergeCell ref="BD23:BI23"/>
-    <x:mergeCell ref="BJ23:BP23"/>
-    <x:mergeCell ref="BQ23:BT23"/>
-    <x:mergeCell ref="BU23:CA23"/>
-    <x:mergeCell ref="CB23:CG23"/>
+    <x:mergeCell ref="I23:K23"/>
+    <x:mergeCell ref="L23:Q23"/>
+    <x:mergeCell ref="R23:T23"/>
+    <x:mergeCell ref="U23:V23"/>
+    <x:mergeCell ref="W23:AC23"/>
+    <x:mergeCell ref="AD23:AG23"/>
+    <x:mergeCell ref="AH23:AL23"/>
+    <x:mergeCell ref="AM23:AS23"/>
+    <x:mergeCell ref="AT23:AW23"/>
+    <x:mergeCell ref="AX23:BA23"/>
+    <x:mergeCell ref="BB23:BG23"/>
+    <x:mergeCell ref="BH23:BN23"/>
+    <x:mergeCell ref="BO23:BR23"/>
+    <x:mergeCell ref="BS23:BY23"/>
+    <x:mergeCell ref="BZ23:CE23"/>
     <x:mergeCell ref="A24:H24"/>
-    <x:mergeCell ref="I24:CG24"/>
+    <x:mergeCell ref="I24:AN24"/>
+    <x:mergeCell ref="AO24:AU24"/>
+    <x:mergeCell ref="AV24:BC24"/>
+    <x:mergeCell ref="BD24:BI24"/>
+    <x:mergeCell ref="BJ24:BP24"/>
+    <x:mergeCell ref="BQ24:BT24"/>
+    <x:mergeCell ref="BU24:CA24"/>
+    <x:mergeCell ref="CB24:CG24"/>
     <x:mergeCell ref="A25:H25"/>
-    <x:mergeCell ref="J25:Y25"/>
-    <x:mergeCell ref="Z25:AE25"/>
-    <x:mergeCell ref="AG25:AU25"/>
-    <x:mergeCell ref="AV25:BK25"/>
-    <x:mergeCell ref="BL25:BQ25"/>
-    <x:mergeCell ref="BS25:CG25"/>
-    <x:mergeCell ref="A26:B26"/>
-    <x:mergeCell ref="C26:H26"/>
+    <x:mergeCell ref="I25:CG25"/>
+    <x:mergeCell ref="A26:H26"/>
     <x:mergeCell ref="J26:Y26"/>
     <x:mergeCell ref="Z26:AE26"/>
     <x:mergeCell ref="AG26:AU26"/>
     <x:mergeCell ref="AV26:BK26"/>
     <x:mergeCell ref="BL26:BQ26"/>
     <x:mergeCell ref="BS26:CG26"/>
-    <x:mergeCell ref="A27:H27"/>
+    <x:mergeCell ref="A27:B27"/>
+    <x:mergeCell ref="C27:H27"/>
     <x:mergeCell ref="J27:Y27"/>
     <x:mergeCell ref="Z27:AE27"/>
     <x:mergeCell ref="AG27:AU27"/>
-    <x:mergeCell ref="AV27:AX27"/>
-    <x:mergeCell ref="AY27:CG27"/>
+    <x:mergeCell ref="AV27:BK27"/>
+    <x:mergeCell ref="BL27:BQ27"/>
+    <x:mergeCell ref="BS27:CG27"/>
     <x:mergeCell ref="A28:H28"/>
     <x:mergeCell ref="J28:Y28"/>
     <x:mergeCell ref="Z28:AE28"/>
     <x:mergeCell ref="AG28:AU28"/>
     <x:mergeCell ref="AV28:AX28"/>
     <x:mergeCell ref="AY28:CG28"/>
-    <x:mergeCell ref="A29:CG29"/>
-    <x:mergeCell ref="A30:V30"/>
-    <x:mergeCell ref="W30:CD30"/>
-    <x:mergeCell ref="CE30:CG30"/>
+    <x:mergeCell ref="A29:H29"/>
+    <x:mergeCell ref="J29:Y29"/>
+    <x:mergeCell ref="Z29:AE29"/>
+    <x:mergeCell ref="AG29:AU29"/>
+    <x:mergeCell ref="AV29:AX29"/>
+    <x:mergeCell ref="AY29:CG29"/>
+    <x:mergeCell ref="A30:CG30"/>
     <x:mergeCell ref="A31:V31"/>
     <x:mergeCell ref="W31:CD31"/>
     <x:mergeCell ref="CE31:CG31"/>
-    <x:mergeCell ref="A32:P32"/>
-    <x:mergeCell ref="Q32:CD32"/>
+    <x:mergeCell ref="A32:V32"/>
+    <x:mergeCell ref="W32:CD32"/>
     <x:mergeCell ref="CE32:CG32"/>
     <x:mergeCell ref="A33:P33"/>
     <x:mergeCell ref="Q33:CD33"/>
     <x:mergeCell ref="CE33:CG33"/>
-    <x:mergeCell ref="A34:AP34"/>
-    <x:mergeCell ref="AR34:CG34"/>
-    <x:mergeCell ref="A35:M35"/>
-    <x:mergeCell ref="O35:X35"/>
-    <x:mergeCell ref="Z35:AM35"/>
-    <x:mergeCell ref="AN35:AP35"/>
-    <x:mergeCell ref="AR35:BD35"/>
-    <x:mergeCell ref="BF35:BO35"/>
-    <x:mergeCell ref="BR35:CD35"/>
-    <x:mergeCell ref="CE35:CG35"/>
+    <x:mergeCell ref="A34:P34"/>
+    <x:mergeCell ref="Q34:CD34"/>
+    <x:mergeCell ref="CE34:CG34"/>
+    <x:mergeCell ref="A35:AP35"/>
+    <x:mergeCell ref="AR35:CG35"/>
     <x:mergeCell ref="A36:M36"/>
     <x:mergeCell ref="O36:X36"/>
     <x:mergeCell ref="Z36:AM36"/>
     <x:mergeCell ref="AN36:AP36"/>
     <x:mergeCell ref="AR36:BD36"/>
     <x:mergeCell ref="BF36:BO36"/>
-    <x:mergeCell ref="BQ36:CD36"/>
+    <x:mergeCell ref="BR36:CD36"/>
     <x:mergeCell ref="CE36:CG36"/>
-    <x:mergeCell ref="A37:O37"/>
-    <x:mergeCell ref="Q37:R37"/>
-    <x:mergeCell ref="T37:Y37"/>
-    <x:mergeCell ref="Z37:AA37"/>
-    <x:mergeCell ref="AB37:AC37"/>
-    <x:mergeCell ref="AD37:AM37"/>
+    <x:mergeCell ref="A37:M37"/>
+    <x:mergeCell ref="O37:X37"/>
+    <x:mergeCell ref="Z37:AM37"/>
     <x:mergeCell ref="AN37:AP37"/>
     <x:mergeCell ref="AR37:BD37"/>
-    <x:mergeCell ref="BF37:BJ37"/>
-    <x:mergeCell ref="BL37:BU37"/>
-    <x:mergeCell ref="BX37:CB37"/>
+    <x:mergeCell ref="BF37:BO37"/>
+    <x:mergeCell ref="BQ37:CD37"/>
     <x:mergeCell ref="CE37:CG37"/>
-    <x:mergeCell ref="A38:AM38"/>
+    <x:mergeCell ref="A38:O38"/>
+    <x:mergeCell ref="Q38:R38"/>
+    <x:mergeCell ref="T38:Y38"/>
+    <x:mergeCell ref="Z38:AA38"/>
+    <x:mergeCell ref="AB38:AC38"/>
+    <x:mergeCell ref="AD38:AM38"/>
     <x:mergeCell ref="AN38:AP38"/>
-    <x:mergeCell ref="AR38:CD38"/>
+    <x:mergeCell ref="AR38:BD38"/>
+    <x:mergeCell ref="BF38:BJ38"/>
+    <x:mergeCell ref="BL38:BU38"/>
+    <x:mergeCell ref="BX38:CB38"/>
     <x:mergeCell ref="CE38:CG38"/>
     <x:mergeCell ref="A39:AM39"/>
     <x:mergeCell ref="AN39:AP39"/>
@@ -5665,13 +5795,9 @@
     <x:mergeCell ref="AN41:AP41"/>
     <x:mergeCell ref="AR41:CD41"/>
     <x:mergeCell ref="CE41:CG41"/>
-    <x:mergeCell ref="A42:M42"/>
-    <x:mergeCell ref="O42:X42"/>
-    <x:mergeCell ref="Z42:AM42"/>
+    <x:mergeCell ref="A42:AM42"/>
     <x:mergeCell ref="AN42:AP42"/>
-    <x:mergeCell ref="AR42:BD42"/>
-    <x:mergeCell ref="BF42:BO42"/>
-    <x:mergeCell ref="BR42:CD42"/>
+    <x:mergeCell ref="AR42:CD42"/>
     <x:mergeCell ref="CE42:CG42"/>
     <x:mergeCell ref="A43:M43"/>
     <x:mergeCell ref="O43:X43"/>
@@ -5679,11 +5805,15 @@
     <x:mergeCell ref="AN43:AP43"/>
     <x:mergeCell ref="AR43:BD43"/>
     <x:mergeCell ref="BF43:BO43"/>
-    <x:mergeCell ref="BQ43:CD43"/>
+    <x:mergeCell ref="BR43:CD43"/>
     <x:mergeCell ref="CE43:CG43"/>
-    <x:mergeCell ref="A44:AM44"/>
+    <x:mergeCell ref="A44:M44"/>
+    <x:mergeCell ref="O44:X44"/>
+    <x:mergeCell ref="Z44:AM44"/>
     <x:mergeCell ref="AN44:AP44"/>
-    <x:mergeCell ref="AR44:CD44"/>
+    <x:mergeCell ref="AR44:BD44"/>
+    <x:mergeCell ref="BF44:BO44"/>
+    <x:mergeCell ref="BQ44:CD44"/>
     <x:mergeCell ref="CE44:CG44"/>
     <x:mergeCell ref="A45:AM45"/>
     <x:mergeCell ref="AN45:AP45"/>
@@ -5693,12 +5823,16 @@
     <x:mergeCell ref="AN46:AP46"/>
     <x:mergeCell ref="AR46:CD46"/>
     <x:mergeCell ref="CE46:CG46"/>
-    <x:mergeCell ref="A47:M47"/>
-    <x:mergeCell ref="N47:AM47"/>
+    <x:mergeCell ref="A47:AM47"/>
     <x:mergeCell ref="AN47:AP47"/>
-    <x:mergeCell ref="AR47:BD47"/>
-    <x:mergeCell ref="BE47:CD47"/>
+    <x:mergeCell ref="AR47:CD47"/>
     <x:mergeCell ref="CE47:CG47"/>
+    <x:mergeCell ref="A48:M48"/>
+    <x:mergeCell ref="N48:AM48"/>
+    <x:mergeCell ref="AN48:AP48"/>
+    <x:mergeCell ref="AR48:BD48"/>
+    <x:mergeCell ref="BE48:CD48"/>
+    <x:mergeCell ref="CE48:CG48"/>
   </x:mergeCells>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
